--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1206.581369131552</v>
+        <v>1396.430209286169</v>
       </c>
       <c r="AB2" t="n">
-        <v>1650.897859858968</v>
+        <v>1910.657418498226</v>
       </c>
       <c r="AC2" t="n">
-        <v>1493.338485163727</v>
+        <v>1728.306956101284</v>
       </c>
       <c r="AD2" t="n">
-        <v>1206581.369131553</v>
+        <v>1396430.209286169</v>
       </c>
       <c r="AE2" t="n">
-        <v>1650897.859858968</v>
+        <v>1910657.418498226</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.900683543631137e-07</v>
+        <v>9.948469898637679e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.03645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1493338.485163727</v>
+        <v>1728306.956101284</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>858.1409331768123</v>
+        <v>1004.822934354011</v>
       </c>
       <c r="AB3" t="n">
-        <v>1174.146283278568</v>
+        <v>1374.843068442392</v>
       </c>
       <c r="AC3" t="n">
-        <v>1062.087409927119</v>
+        <v>1243.629975594615</v>
       </c>
       <c r="AD3" t="n">
-        <v>858140.9331768123</v>
+        <v>1004822.934354011</v>
       </c>
       <c r="AE3" t="n">
-        <v>1174146.283278568</v>
+        <v>1374843.068442392</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.923692076733933e-07</v>
+        <v>1.286496931047277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1062087.409927119</v>
+        <v>1243629.975594615</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>766.7833092860069</v>
+        <v>904.7466018131506</v>
       </c>
       <c r="AB4" t="n">
-        <v>1049.146751857254</v>
+        <v>1237.914215203794</v>
       </c>
       <c r="AC4" t="n">
-        <v>949.0176583467113</v>
+        <v>1119.769419928256</v>
       </c>
       <c r="AD4" t="n">
-        <v>766783.3092860068</v>
+        <v>904746.6018131506</v>
       </c>
       <c r="AE4" t="n">
-        <v>1049146.751857254</v>
+        <v>1237914.215203794</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.71123457017905e-07</v>
+        <v>1.400034129795767e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.30208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>949017.6583467113</v>
+        <v>1119769.419928256</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>718.5742898024482</v>
+        <v>856.5374928210408</v>
       </c>
       <c r="AB5" t="n">
-        <v>983.1850445680138</v>
+        <v>1171.952385445005</v>
       </c>
       <c r="AC5" t="n">
-        <v>889.3512438233186</v>
+        <v>1060.102894623637</v>
       </c>
       <c r="AD5" t="n">
-        <v>718574.2898024482</v>
+        <v>856537.4928210408</v>
       </c>
       <c r="AE5" t="n">
-        <v>983185.0445680139</v>
+        <v>1171952.385445005</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.013628343815877e-06</v>
+        <v>1.461311912522797e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.98697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>889351.2438233185</v>
+        <v>1060102.894623637</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>699.9308390179732</v>
+        <v>829.2607637496334</v>
       </c>
       <c r="AB6" t="n">
-        <v>957.6762527136949</v>
+        <v>1134.631161365148</v>
       </c>
       <c r="AC6" t="n">
-        <v>866.2769752617614</v>
+        <v>1026.343555789294</v>
       </c>
       <c r="AD6" t="n">
-        <v>699930.8390179732</v>
+        <v>829260.7637496333</v>
       </c>
       <c r="AE6" t="n">
-        <v>957676.2527136949</v>
+        <v>1134631.161365148</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.040517761493671e-06</v>
+        <v>1.500077429107937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.20572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>866276.9752617615</v>
+        <v>1026343.555789294</v>
       </c>
     </row>
     <row r="7">
@@ -7282,28 +7282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>679.6095687869081</v>
+        <v>809.0247448645888</v>
       </c>
       <c r="AB7" t="n">
-        <v>929.8717942723816</v>
+        <v>1106.943347576484</v>
       </c>
       <c r="AC7" t="n">
-        <v>841.1261353102848</v>
+        <v>1001.29822808853</v>
       </c>
       <c r="AD7" t="n">
-        <v>679609.5687869081</v>
+        <v>809024.7448645888</v>
       </c>
       <c r="AE7" t="n">
-        <v>929871.7942723816</v>
+        <v>1106943.347576484</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.057020207933081e-06</v>
+        <v>1.523868418887185e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>841126.1353102848</v>
+        <v>1001298.22808853</v>
       </c>
     </row>
     <row r="8">
@@ -7388,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>669.6438939989672</v>
+        <v>790.4257917897156</v>
       </c>
       <c r="AB8" t="n">
-        <v>916.2363183729789</v>
+        <v>1081.495439451543</v>
       </c>
       <c r="AC8" t="n">
-        <v>828.7920100932103</v>
+        <v>978.2790325986696</v>
       </c>
       <c r="AD8" t="n">
-        <v>669643.8939989673</v>
+        <v>790425.7917897156</v>
       </c>
       <c r="AE8" t="n">
-        <v>916236.3183729788</v>
+        <v>1081495.439451543</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.071818724259228e-06</v>
+        <v>1.545202913257826e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.359375</v>
       </c>
       <c r="AH8" t="n">
-        <v>828792.0100932103</v>
+        <v>978279.0325986695</v>
       </c>
     </row>
     <row r="9">
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>663.5122795954344</v>
+        <v>784.2941773861828</v>
       </c>
       <c r="AB9" t="n">
-        <v>907.846773038329</v>
+        <v>1073.105894116893</v>
       </c>
       <c r="AC9" t="n">
-        <v>821.2031511904987</v>
+        <v>970.690173695958</v>
       </c>
       <c r="AD9" t="n">
-        <v>663512.2795954344</v>
+        <v>784294.1773861828</v>
       </c>
       <c r="AE9" t="n">
-        <v>907846.7730383291</v>
+        <v>1073105.894116893</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079778178623922e-06</v>
+        <v>1.556677775372003e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.15104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>821203.1511904987</v>
+        <v>970690.173695958</v>
       </c>
     </row>
     <row r="10">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>647.4490399045686</v>
+        <v>776.7788751276777</v>
       </c>
       <c r="AB10" t="n">
-        <v>885.868339833166</v>
+        <v>1062.823126015071</v>
       </c>
       <c r="AC10" t="n">
-        <v>801.3223088035116</v>
+        <v>961.3887785498176</v>
       </c>
       <c r="AD10" t="n">
-        <v>647449.0399045686</v>
+        <v>776778.8751276777</v>
       </c>
       <c r="AE10" t="n">
-        <v>885868.339833166</v>
+        <v>1062823.126015071</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.089558270643884e-06</v>
+        <v>1.570777386004966e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>801322.3088035117</v>
+        <v>961388.7785498176</v>
       </c>
     </row>
     <row r="11">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>642.6866334334719</v>
+        <v>772.0164686565811</v>
       </c>
       <c r="AB11" t="n">
-        <v>879.3522051968663</v>
+        <v>1056.306991378771</v>
       </c>
       <c r="AC11" t="n">
-        <v>795.4280649114481</v>
+        <v>955.494534657754</v>
       </c>
       <c r="AD11" t="n">
-        <v>642686.6334334719</v>
+        <v>772016.4686565811</v>
       </c>
       <c r="AE11" t="n">
-        <v>879352.2051968663</v>
+        <v>1056306.991378771</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.095557038302906e-06</v>
+        <v>1.579425595868144e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.74739583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>795428.0649114482</v>
+        <v>955494.534657754</v>
       </c>
     </row>
     <row r="12">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>637.309966641766</v>
+        <v>758.1771157785349</v>
       </c>
       <c r="AB12" t="n">
-        <v>871.9956124906561</v>
+        <v>1037.37137822187</v>
       </c>
       <c r="AC12" t="n">
-        <v>788.773575088076</v>
+        <v>938.3661098442475</v>
       </c>
       <c r="AD12" t="n">
-        <v>637309.966641766</v>
+        <v>758177.1157785349</v>
       </c>
       <c r="AE12" t="n">
-        <v>871995.6124906561</v>
+        <v>1037371.37822187</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.102116002163548e-06</v>
+        <v>1.588881420660179e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.578125</v>
       </c>
       <c r="AH12" t="n">
-        <v>788773.5750880759</v>
+        <v>938366.1098442475</v>
       </c>
     </row>
     <row r="13">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>635.0442286311262</v>
+        <v>755.9113777678951</v>
       </c>
       <c r="AB13" t="n">
-        <v>868.8955297871926</v>
+        <v>1034.271295518406</v>
       </c>
       <c r="AC13" t="n">
-        <v>785.9693599268375</v>
+        <v>935.5618946830089</v>
       </c>
       <c r="AD13" t="n">
-        <v>635044.2286311262</v>
+        <v>755911.3777678951</v>
       </c>
       <c r="AE13" t="n">
-        <v>868895.5297871926</v>
+        <v>1034271.295518406</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.103423126633996e-06</v>
+        <v>1.590765855494178e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.5390625</v>
       </c>
       <c r="AH13" t="n">
-        <v>785969.3599268375</v>
+        <v>935561.8946830089</v>
       </c>
     </row>
     <row r="14">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>630.3576287052069</v>
+        <v>751.0541856413837</v>
       </c>
       <c r="AB14" t="n">
-        <v>862.4831170103533</v>
+        <v>1027.62547096672</v>
       </c>
       <c r="AC14" t="n">
-        <v>780.1689388255419</v>
+        <v>929.5503382990622</v>
       </c>
       <c r="AD14" t="n">
-        <v>630357.6287052069</v>
+        <v>751054.1856413838</v>
       </c>
       <c r="AE14" t="n">
-        <v>862483.1170103534</v>
+        <v>1027625.47096672</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.107554573620949e-06</v>
+        <v>1.596722015594499e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>780168.9388255419</v>
+        <v>929550.3382990622</v>
       </c>
     </row>
     <row r="15">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>625.433910748872</v>
+        <v>746.1304676850488</v>
       </c>
       <c r="AB15" t="n">
-        <v>855.7462688833901</v>
+        <v>1020.888622839757</v>
       </c>
       <c r="AC15" t="n">
-        <v>774.0750460285904</v>
+        <v>923.4564455021108</v>
       </c>
       <c r="AD15" t="n">
-        <v>625433.910748872</v>
+        <v>746130.4676850487</v>
       </c>
       <c r="AE15" t="n">
-        <v>855746.2688833901</v>
+        <v>1020888.622839757</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.114020171447989e-06</v>
+        <v>1.606043237898392e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.27864583333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>774075.0460285903</v>
+        <v>923456.4455021108</v>
       </c>
     </row>
     <row r="16">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>623.5500079666442</v>
+        <v>744.246564902821</v>
       </c>
       <c r="AB16" t="n">
-        <v>853.1686299848212</v>
+        <v>1018.310983941188</v>
       </c>
       <c r="AC16" t="n">
-        <v>771.743413368762</v>
+        <v>921.1248128422823</v>
       </c>
       <c r="AD16" t="n">
-        <v>623550.0079666442</v>
+        <v>744246.564902821</v>
       </c>
       <c r="AE16" t="n">
-        <v>853168.6299848212</v>
+        <v>1018310.983941188</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.113926805414385e-06</v>
+        <v>1.605908635410249e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.27864583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>771743.413368762</v>
+        <v>921124.8128422822</v>
       </c>
     </row>
     <row r="17">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>620.9933668359872</v>
+        <v>741.6899237721639</v>
       </c>
       <c r="AB17" t="n">
-        <v>849.6705207988098</v>
+        <v>1014.812874755176</v>
       </c>
       <c r="AC17" t="n">
-        <v>768.5791588138366</v>
+        <v>917.9605582873568</v>
       </c>
       <c r="AD17" t="n">
-        <v>620993.3668359872</v>
+        <v>741689.9237721639</v>
       </c>
       <c r="AE17" t="n">
-        <v>849670.5207988098</v>
+        <v>1014812.874755176</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.116657761897286e-06</v>
+        <v>1.609845758188427e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>28</v>
+        <v>27.21354166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>768579.1588138365</v>
+        <v>917960.5582873567</v>
       </c>
     </row>
     <row r="18">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>617.3909033046461</v>
+        <v>738.087460240823</v>
       </c>
       <c r="AB18" t="n">
-        <v>844.7414712657549</v>
+        <v>1009.883825222121</v>
       </c>
       <c r="AC18" t="n">
-        <v>764.1205308502517</v>
+        <v>913.5019303237719</v>
       </c>
       <c r="AD18" t="n">
-        <v>617390.9033046461</v>
+        <v>738087.460240823</v>
       </c>
       <c r="AE18" t="n">
-        <v>844741.4712657549</v>
+        <v>1009883.825222121</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.120252354191019e-06</v>
+        <v>1.615027953981927e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>764120.5308502517</v>
+        <v>913501.9303237719</v>
       </c>
     </row>
     <row r="19">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>612.638208893379</v>
+        <v>724.8720797432154</v>
       </c>
       <c r="AB19" t="n">
-        <v>838.2386250981796</v>
+        <v>991.8019586038547</v>
       </c>
       <c r="AC19" t="n">
-        <v>758.238307194108</v>
+        <v>897.1457716774937</v>
       </c>
       <c r="AD19" t="n">
-        <v>612638.208893379</v>
+        <v>724872.0797432155</v>
       </c>
       <c r="AE19" t="n">
-        <v>838238.6250981796</v>
+        <v>991801.9586038548</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.123216725757929e-06</v>
+        <v>1.619301582980462e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27.05729166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>758238.3071941079</v>
+        <v>897145.7716774937</v>
       </c>
     </row>
     <row r="20">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>612.4799075700746</v>
+        <v>724.713778419911</v>
       </c>
       <c r="AB20" t="n">
-        <v>838.0220302438731</v>
+        <v>991.5853637495482</v>
       </c>
       <c r="AC20" t="n">
-        <v>758.0423838487037</v>
+        <v>896.9498483320893</v>
       </c>
       <c r="AD20" t="n">
-        <v>612479.9075700745</v>
+        <v>724713.778419911</v>
       </c>
       <c r="AE20" t="n">
-        <v>838022.0302438731</v>
+        <v>991585.3637495481</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.123753580451148e-06</v>
+        <v>1.620075547287283e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27.04427083333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>758042.3838487037</v>
+        <v>896949.8483320894</v>
       </c>
     </row>
     <row r="21">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>598.6661723609861</v>
+        <v>719.4479806431834</v>
       </c>
       <c r="AB21" t="n">
-        <v>819.1214683118113</v>
+        <v>984.3804669208271</v>
       </c>
       <c r="AC21" t="n">
-        <v>740.9456650203325</v>
+        <v>890.4325767445653</v>
       </c>
       <c r="AD21" t="n">
-        <v>598666.1723609861</v>
+        <v>719447.9806431835</v>
       </c>
       <c r="AE21" t="n">
-        <v>819121.4683118113</v>
+        <v>984380.466920827</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.126554561459252e-06</v>
+        <v>1.624113621931568e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>26.97916666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>740945.6650203326</v>
+        <v>890432.5767445653</v>
       </c>
     </row>
     <row r="22">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>598.4572545783468</v>
+        <v>719.2390628605441</v>
       </c>
       <c r="AB22" t="n">
-        <v>818.8356177848024</v>
+        <v>984.094616393818</v>
       </c>
       <c r="AC22" t="n">
-        <v>740.6870956664275</v>
+        <v>890.17400739066</v>
       </c>
       <c r="AD22" t="n">
-        <v>598457.2545783469</v>
+        <v>719239.0628605441</v>
       </c>
       <c r="AE22" t="n">
-        <v>818835.6177848023</v>
+        <v>984094.6163938181</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.126344487883644e-06</v>
+        <v>1.623810766333247e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>26.97916666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>740687.0956664275</v>
+        <v>890174.00739066</v>
       </c>
     </row>
     <row r="23">
@@ -8978,28 +8978,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>596.196846817141</v>
+        <v>716.9786550993384</v>
       </c>
       <c r="AB23" t="n">
-        <v>815.7428281637682</v>
+        <v>981.0018267727838</v>
       </c>
       <c r="AC23" t="n">
-        <v>737.8894775460674</v>
+        <v>887.3763892703</v>
       </c>
       <c r="AD23" t="n">
-        <v>596196.846817141</v>
+        <v>716978.6550993384</v>
       </c>
       <c r="AE23" t="n">
-        <v>815742.8281637682</v>
+        <v>981001.8267727839</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.12597102374923e-06</v>
+        <v>1.623272356380676e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>26.9921875</v>
       </c>
       <c r="AH23" t="n">
-        <v>737889.4775460673</v>
+        <v>887376.3892703</v>
       </c>
     </row>
     <row r="24">
@@ -9084,28 +9084,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>593.0289744760059</v>
+        <v>713.8107827582033</v>
       </c>
       <c r="AB24" t="n">
-        <v>811.4084054699629</v>
+        <v>976.6674040789786</v>
       </c>
       <c r="AC24" t="n">
-        <v>733.9687260707585</v>
+        <v>883.4556377949912</v>
       </c>
       <c r="AD24" t="n">
-        <v>593028.974476006</v>
+        <v>713810.7827582033</v>
       </c>
       <c r="AE24" t="n">
-        <v>811408.4054699629</v>
+        <v>976667.4040789786</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.129799031126972e-06</v>
+        <v>1.628791058394532e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>26.90104166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>733968.7260707585</v>
+        <v>883455.6377949911</v>
       </c>
     </row>
     <row r="25">
@@ -9190,28 +9190,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>590.3021795859582</v>
+        <v>711.0839878681555</v>
       </c>
       <c r="AB25" t="n">
-        <v>807.6774844036992</v>
+        <v>972.9364830127149</v>
       </c>
       <c r="AC25" t="n">
-        <v>730.5938788746784</v>
+        <v>880.080790598911</v>
       </c>
       <c r="AD25" t="n">
-        <v>590302.1795859582</v>
+        <v>711083.9878681556</v>
       </c>
       <c r="AE25" t="n">
-        <v>807677.4844036992</v>
+        <v>972936.4830127149</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.130195836769786e-06</v>
+        <v>1.629363118969139e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>26.88802083333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>730593.8788746784</v>
+        <v>880080.790598911</v>
       </c>
     </row>
     <row r="26">
@@ -9296,28 +9296,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>586.6974487439795</v>
+        <v>707.4792570261769</v>
       </c>
       <c r="AB26" t="n">
-        <v>802.745332636203</v>
+        <v>968.0043312452189</v>
       </c>
       <c r="AC26" t="n">
-        <v>726.1324447495537</v>
+        <v>875.6193564737861</v>
       </c>
       <c r="AD26" t="n">
-        <v>586697.4487439796</v>
+        <v>707479.2570261769</v>
       </c>
       <c r="AE26" t="n">
-        <v>802745.332636203</v>
+        <v>968004.3312452189</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.129495591517761e-06</v>
+        <v>1.628353600308068e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>27</v>
+        <v>26.9140625</v>
       </c>
       <c r="AH26" t="n">
-        <v>726132.4447495537</v>
+        <v>875619.3564737861</v>
       </c>
     </row>
     <row r="27">
@@ -9402,28 +9402,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>585.474501222263</v>
+        <v>706.2563095044603</v>
       </c>
       <c r="AB27" t="n">
-        <v>801.0720418843536</v>
+        <v>966.3310404933693</v>
       </c>
       <c r="AC27" t="n">
-        <v>724.6188505185822</v>
+        <v>874.1057622428148</v>
       </c>
       <c r="AD27" t="n">
-        <v>585474.501222263</v>
+        <v>706256.3095044603</v>
       </c>
       <c r="AE27" t="n">
-        <v>801072.0418843535</v>
+        <v>966331.0404933693</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.132693378168679e-06</v>
+        <v>1.63296373552696e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>26.8359375</v>
       </c>
       <c r="AH27" t="n">
-        <v>724618.8505185823</v>
+        <v>874105.7622428148</v>
       </c>
     </row>
     <row r="28">
@@ -9508,28 +9508,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>586.9636471400831</v>
+        <v>707.7454554222805</v>
       </c>
       <c r="AB28" t="n">
-        <v>803.1095570255965</v>
+        <v>968.3685556346122</v>
       </c>
       <c r="AC28" t="n">
-        <v>726.4619080744154</v>
+        <v>875.9488197986481</v>
       </c>
       <c r="AD28" t="n">
-        <v>586963.6471400831</v>
+        <v>707745.4554222806</v>
       </c>
       <c r="AE28" t="n">
-        <v>803109.5570255965</v>
+        <v>968368.5556346122</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.132483304593071e-06</v>
+        <v>1.632660879928639e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>27</v>
+        <v>26.8359375</v>
       </c>
       <c r="AH28" t="n">
-        <v>726461.9080744154</v>
+        <v>875948.819798648</v>
       </c>
     </row>
   </sheetData>
@@ -9805,28 +9805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>968.3550610056226</v>
+        <v>1136.532939905091</v>
       </c>
       <c r="AB2" t="n">
-        <v>1324.946115278102</v>
+        <v>1555.05450867273</v>
       </c>
       <c r="AC2" t="n">
-        <v>1198.495117609511</v>
+        <v>1406.642288897714</v>
       </c>
       <c r="AD2" t="n">
-        <v>968355.0610056226</v>
+        <v>1136532.939905091</v>
       </c>
       <c r="AE2" t="n">
-        <v>1324946.115278102</v>
+        <v>1555054.50867273</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.968091613690818e-07</v>
+        <v>1.166498637118053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1198495.117609511</v>
+        <v>1406642.288897715</v>
       </c>
     </row>
     <row r="3">
@@ -9911,28 +9911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>736.6360715073083</v>
+        <v>871.2295970413361</v>
       </c>
       <c r="AB3" t="n">
-        <v>1007.897971126175</v>
+        <v>1192.054770609106</v>
       </c>
       <c r="AC3" t="n">
-        <v>911.7056033555789</v>
+        <v>1078.286736361551</v>
       </c>
       <c r="AD3" t="n">
-        <v>736636.0715073083</v>
+        <v>871229.5970413361</v>
       </c>
       <c r="AE3" t="n">
-        <v>1007897.971126175</v>
+        <v>1192054.770609106</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.805878979120099e-07</v>
+        <v>1.435543793853272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.05729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>911705.6033555788</v>
+        <v>1078286.736361551</v>
       </c>
     </row>
     <row r="4">
@@ -10017,28 +10017,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>664.3016010163923</v>
+        <v>798.8096961872974</v>
       </c>
       <c r="AB4" t="n">
-        <v>908.926757428887</v>
+        <v>1092.966667320072</v>
       </c>
       <c r="AC4" t="n">
-        <v>822.1800633865894</v>
+        <v>988.6554625793955</v>
       </c>
       <c r="AD4" t="n">
-        <v>664301.6010163922</v>
+        <v>798809.6961872973</v>
       </c>
       <c r="AE4" t="n">
-        <v>908926.757428887</v>
+        <v>1092966.667320072</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.050491910826446e-06</v>
+        <v>1.53788063904424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.93489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>822180.0633865894</v>
+        <v>988655.4625793955</v>
       </c>
     </row>
     <row r="5">
@@ -10123,28 +10123,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>633.665774308071</v>
+        <v>759.841786778545</v>
       </c>
       <c r="AB5" t="n">
-        <v>867.0094677692757</v>
+        <v>1039.649054524185</v>
       </c>
       <c r="AC5" t="n">
-        <v>784.263301020806</v>
+        <v>940.4264079170083</v>
       </c>
       <c r="AD5" t="n">
-        <v>633665.774308071</v>
+        <v>759841.786778545</v>
       </c>
       <c r="AE5" t="n">
-        <v>867009.4677692758</v>
+        <v>1039649.054524185</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.086880631884151e-06</v>
+        <v>1.591152357767138e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.93229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>784263.301020806</v>
+        <v>940426.4079170083</v>
       </c>
     </row>
     <row r="6">
@@ -10229,28 +10229,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>617.7973507571186</v>
+        <v>735.5560291811404</v>
       </c>
       <c r="AB6" t="n">
-        <v>845.2975906014235</v>
+        <v>1006.420209567407</v>
       </c>
       <c r="AC6" t="n">
-        <v>764.6235749370426</v>
+        <v>910.3688772859286</v>
       </c>
       <c r="AD6" t="n">
-        <v>617797.3507571185</v>
+        <v>735556.0291811404</v>
       </c>
       <c r="AE6" t="n">
-        <v>845297.5906014235</v>
+        <v>1006420.209567407</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.112258565415437e-06</v>
+        <v>1.628304697765655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.26822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>764623.5749370425</v>
+        <v>910368.8772859287</v>
       </c>
     </row>
     <row r="7">
@@ -10335,28 +10335,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>599.2587011466571</v>
+        <v>725.3493727625594</v>
       </c>
       <c r="AB7" t="n">
-        <v>819.9321923368918</v>
+        <v>992.455011969603</v>
       </c>
       <c r="AC7" t="n">
-        <v>741.6790146823176</v>
+        <v>897.7364985465811</v>
       </c>
       <c r="AD7" t="n">
-        <v>599258.7011466571</v>
+        <v>725349.3727625593</v>
       </c>
       <c r="AE7" t="n">
-        <v>819932.1923368918</v>
+        <v>992455.011969603</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.128122792180475e-06</v>
+        <v>1.651529328954072e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.86458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>741679.0146823176</v>
+        <v>897736.498546581</v>
       </c>
     </row>
     <row r="8">
@@ -10441,28 +10441,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>591.4908030539651</v>
+        <v>709.3347328240075</v>
       </c>
       <c r="AB8" t="n">
-        <v>809.3038114709929</v>
+        <v>970.5430750896257</v>
       </c>
       <c r="AC8" t="n">
-        <v>732.0649915692338</v>
+        <v>877.9158061688323</v>
       </c>
       <c r="AD8" t="n">
-        <v>591490.8030539651</v>
+        <v>709334.7328240075</v>
       </c>
       <c r="AE8" t="n">
-        <v>809303.8114709929</v>
+        <v>970543.0750896258</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.139350897881758e-06</v>
+        <v>1.66796685331117e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.59114583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>732064.9915692338</v>
+        <v>877915.8061688324</v>
       </c>
     </row>
     <row r="9">
@@ -10547,28 +10547,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>585.3520844885834</v>
+        <v>703.0254220580335</v>
       </c>
       <c r="AB9" t="n">
-        <v>800.9045459086881</v>
+        <v>961.9103977524738</v>
       </c>
       <c r="AC9" t="n">
-        <v>724.4673401237521</v>
+        <v>870.1070194406994</v>
       </c>
       <c r="AD9" t="n">
-        <v>585352.0844885834</v>
+        <v>703025.4220580335</v>
       </c>
       <c r="AE9" t="n">
-        <v>800904.5459086881</v>
+        <v>961910.3977524738</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.147488256207204e-06</v>
+        <v>1.679879639780724e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.39583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>724467.3401237521</v>
+        <v>870107.0194406995</v>
       </c>
     </row>
     <row r="10">
@@ -10653,28 +10653,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>579.9897809793529</v>
+        <v>697.663118548803</v>
       </c>
       <c r="AB10" t="n">
-        <v>793.5676056792242</v>
+        <v>954.5734575230101</v>
       </c>
       <c r="AC10" t="n">
-        <v>717.830627172328</v>
+        <v>863.4703064892753</v>
       </c>
       <c r="AD10" t="n">
-        <v>579989.7809793529</v>
+        <v>697663.118548803</v>
       </c>
       <c r="AE10" t="n">
-        <v>793567.6056792242</v>
+        <v>954573.4575230101</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.154249266091847e-06</v>
+        <v>1.689777503909729e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.23958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>717830.6271723281</v>
+        <v>863470.3064892753</v>
       </c>
     </row>
     <row r="11">
@@ -10759,28 +10759,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>575.5216969588346</v>
+        <v>693.1950345282849</v>
       </c>
       <c r="AB11" t="n">
-        <v>787.454176004396</v>
+        <v>948.4600278481818</v>
       </c>
       <c r="AC11" t="n">
-        <v>712.3006546454129</v>
+        <v>857.9403339623603</v>
       </c>
       <c r="AD11" t="n">
-        <v>575521.6969588345</v>
+        <v>693195.0345282848</v>
       </c>
       <c r="AE11" t="n">
-        <v>787454.1760043961</v>
+        <v>948460.0278481818</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.159271730577582e-06</v>
+        <v>1.697130202976991e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.12239583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>712300.6546454129</v>
+        <v>857940.3339623604</v>
       </c>
     </row>
     <row r="12">
@@ -10865,28 +10865,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>571.2154052968285</v>
+        <v>680.642001020419</v>
       </c>
       <c r="AB12" t="n">
-        <v>781.5621177722593</v>
+        <v>931.2844136019665</v>
       </c>
       <c r="AC12" t="n">
-        <v>706.9709261813957</v>
+        <v>842.4039362336779</v>
       </c>
       <c r="AD12" t="n">
-        <v>571215.4052968285</v>
+        <v>680642.0010204189</v>
       </c>
       <c r="AE12" t="n">
-        <v>781562.1177722593</v>
+        <v>931284.4136019666</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.162000280995313e-06</v>
+        <v>1.701124698143339e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.05729166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>706970.9261813958</v>
+        <v>842403.9362336779</v>
       </c>
     </row>
     <row r="13">
@@ -10971,28 +10971,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>557.7038409941779</v>
+        <v>675.4624299096487</v>
       </c>
       <c r="AB13" t="n">
-        <v>763.0749994052254</v>
+        <v>924.1974959016605</v>
       </c>
       <c r="AC13" t="n">
-        <v>690.248192444478</v>
+        <v>835.9933840121375</v>
       </c>
       <c r="AD13" t="n">
-        <v>557703.8409941779</v>
+        <v>675462.4299096487</v>
       </c>
       <c r="AE13" t="n">
-        <v>763074.9994052254</v>
+        <v>924197.4959016605</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.16774713939726e-06</v>
+        <v>1.709537882652994e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.92708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>690248.192444478</v>
+        <v>835993.3840121375</v>
       </c>
     </row>
     <row r="14">
@@ -11077,28 +11077,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>553.011095018193</v>
+        <v>670.7696839336638</v>
       </c>
       <c r="AB14" t="n">
-        <v>756.6541773315416</v>
+        <v>917.7766738279769</v>
       </c>
       <c r="AC14" t="n">
-        <v>684.4401646178264</v>
+        <v>830.1853561854859</v>
       </c>
       <c r="AD14" t="n">
-        <v>553011.095018193</v>
+        <v>670769.6839336639</v>
       </c>
       <c r="AE14" t="n">
-        <v>756654.1773315417</v>
+        <v>917776.6738279769</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.171296669586697e-06</v>
+        <v>1.714734261320722e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.84895833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>684440.1646178265</v>
+        <v>830185.356185486</v>
       </c>
     </row>
     <row r="15">
@@ -11183,28 +11183,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>549.2929374388584</v>
+        <v>667.0515263543293</v>
       </c>
       <c r="AB15" t="n">
-        <v>751.5668300979607</v>
+        <v>912.689326594396</v>
       </c>
       <c r="AC15" t="n">
-        <v>679.8383466640818</v>
+        <v>825.5835382317413</v>
       </c>
       <c r="AD15" t="n">
-        <v>549292.9374388584</v>
+        <v>667051.5263543293</v>
       </c>
       <c r="AE15" t="n">
-        <v>751566.8300979608</v>
+        <v>912689.326594396</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.173832048293439e-06</v>
+        <v>1.718445960369099e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26.78385416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>679838.3466640818</v>
+        <v>825583.5382317413</v>
       </c>
     </row>
     <row r="16">
@@ -11289,28 +11289,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>546.0141496852137</v>
+        <v>663.7727386006845</v>
       </c>
       <c r="AB16" t="n">
-        <v>747.0806480435174</v>
+        <v>908.2031445399525</v>
       </c>
       <c r="AC16" t="n">
-        <v>675.7803195285184</v>
+        <v>821.5255110961779</v>
       </c>
       <c r="AD16" t="n">
-        <v>546014.1496852137</v>
+        <v>663772.7386006846</v>
       </c>
       <c r="AE16" t="n">
-        <v>747080.6480435174</v>
+        <v>908203.1445399525</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.173952780612807e-06</v>
+        <v>1.718622707942831e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>26.78385416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>675780.3195285184</v>
+        <v>821525.5110961779</v>
       </c>
     </row>
     <row r="17">
@@ -11395,28 +11395,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>543.7051667637668</v>
+        <v>661.4637556792376</v>
       </c>
       <c r="AB17" t="n">
-        <v>743.9213957452562</v>
+        <v>905.0438922416914</v>
       </c>
       <c r="AC17" t="n">
-        <v>672.9225818355649</v>
+        <v>818.6677734032243</v>
       </c>
       <c r="AD17" t="n">
-        <v>543705.1667637668</v>
+        <v>661463.7556792375</v>
       </c>
       <c r="AE17" t="n">
-        <v>743921.3957452562</v>
+        <v>905043.8922416915</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.176946942133149e-06</v>
+        <v>1.723006047771391e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>26.71875</v>
       </c>
       <c r="AH17" t="n">
-        <v>672922.5818355649</v>
+        <v>818667.7734032243</v>
       </c>
     </row>
     <row r="18">
@@ -11501,28 +11501,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>538.4607694256578</v>
+        <v>656.2193583411286</v>
       </c>
       <c r="AB18" t="n">
-        <v>736.7457799407741</v>
+        <v>897.8682764372094</v>
       </c>
       <c r="AC18" t="n">
-        <v>666.4317967324224</v>
+        <v>812.1769883000818</v>
       </c>
       <c r="AD18" t="n">
-        <v>538460.7694256578</v>
+        <v>656219.3583411286</v>
       </c>
       <c r="AE18" t="n">
-        <v>736745.7799407741</v>
+        <v>897868.2764372093</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.179627199623133e-06</v>
+        <v>1.726929843908246e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>26.65364583333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>666431.7967324224</v>
+        <v>812176.9883000818</v>
       </c>
     </row>
     <row r="19">
@@ -11607,28 +11607,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>537.0599760690444</v>
+        <v>654.8185649845153</v>
       </c>
       <c r="AB19" t="n">
-        <v>734.8291526716145</v>
+        <v>895.9516491680497</v>
       </c>
       <c r="AC19" t="n">
-        <v>664.6980896798281</v>
+        <v>810.4432812474876</v>
       </c>
       <c r="AD19" t="n">
-        <v>537059.9760690444</v>
+        <v>654818.5649845153</v>
       </c>
       <c r="AE19" t="n">
-        <v>734829.1526716144</v>
+        <v>895951.6491680497</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.179530613767638e-06</v>
+        <v>1.726788445849261e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26.65364583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>664698.089679828</v>
+        <v>810443.2812474875</v>
       </c>
     </row>
     <row r="20">
@@ -11713,28 +11713,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>537.8905081486078</v>
+        <v>655.6490970640785</v>
       </c>
       <c r="AB20" t="n">
-        <v>735.9655233033623</v>
+        <v>897.0880197997974</v>
       </c>
       <c r="AC20" t="n">
-        <v>665.7260066933881</v>
+        <v>811.4711982610476</v>
       </c>
       <c r="AD20" t="n">
-        <v>537890.5081486078</v>
+        <v>655649.0970640786</v>
       </c>
       <c r="AE20" t="n">
-        <v>735965.5233033623</v>
+        <v>897088.0197997974</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.178951098634669e-06</v>
+        <v>1.725940057495346e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>665726.0066933881</v>
+        <v>811471.1982610476</v>
       </c>
     </row>
   </sheetData>
@@ -12010,28 +12010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.8418383164638</v>
+        <v>673.9478658637092</v>
       </c>
       <c r="AB2" t="n">
-        <v>752.3178604944982</v>
+        <v>922.1252025561563</v>
       </c>
       <c r="AC2" t="n">
-        <v>680.5176997736513</v>
+        <v>834.1188674350462</v>
       </c>
       <c r="AD2" t="n">
-        <v>549841.8383164639</v>
+        <v>673947.8658637092</v>
       </c>
       <c r="AE2" t="n">
-        <v>752317.8604944982</v>
+        <v>922125.2025561563</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.130567558037048e-06</v>
+        <v>1.749127561532692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.02864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>680517.6997736513</v>
+        <v>834118.8674350462</v>
       </c>
     </row>
     <row r="3">
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>475.0149611398551</v>
+        <v>583.6717520731924</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.9364260126231</v>
+        <v>798.6054409669158</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.9074057054806</v>
+        <v>722.3876585308086</v>
       </c>
       <c r="AD3" t="n">
-        <v>475014.9611398551</v>
+        <v>583671.7520731924</v>
       </c>
       <c r="AE3" t="n">
-        <v>649936.4260126231</v>
+        <v>798605.4409669158</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.252165541579021e-06</v>
+        <v>1.937254651265701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>587907.4057054806</v>
+        <v>722387.6585308086</v>
       </c>
     </row>
     <row r="4">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.878531786621</v>
+        <v>556.4499818653867</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.8071661967574</v>
+        <v>761.3594140288526</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.3217103351978</v>
+        <v>688.6963401285871</v>
       </c>
       <c r="AD4" t="n">
-        <v>447878.531786621</v>
+        <v>556449.9818653867</v>
       </c>
       <c r="AE4" t="n">
-        <v>612807.1661967575</v>
+        <v>761359.4140288526</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.29511417569511e-06</v>
+        <v>2.003701489518397e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>554321.7103351979</v>
+        <v>688696.3401285871</v>
       </c>
     </row>
     <row r="5">
@@ -12328,28 +12328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>427.7488532857825</v>
+        <v>536.4055547105688</v>
       </c>
       <c r="AB5" t="n">
-        <v>585.264852013171</v>
+        <v>733.9337444979153</v>
       </c>
       <c r="AC5" t="n">
-        <v>529.407995961412</v>
+        <v>663.8881380055135</v>
       </c>
       <c r="AD5" t="n">
-        <v>427748.8532857825</v>
+        <v>536405.5547105689</v>
       </c>
       <c r="AE5" t="n">
-        <v>585264.852013171</v>
+        <v>733933.7444979153</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317935689557297e-06</v>
+        <v>2.039009188389183e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.61458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>529407.995961412</v>
+        <v>663888.1380055135</v>
       </c>
     </row>
     <row r="6">
@@ -12434,28 +12434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.3548506446946</v>
+        <v>519.2443528437922</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.4115631654873</v>
+        <v>710.4530310049985</v>
       </c>
       <c r="AC6" t="n">
-        <v>517.7814069616471</v>
+        <v>642.6483908529723</v>
       </c>
       <c r="AD6" t="n">
-        <v>418354.8506446946</v>
+        <v>519244.3528437922</v>
       </c>
       <c r="AE6" t="n">
-        <v>572411.5631654874</v>
+        <v>710453.0310049985</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.329386862392515e-06</v>
+        <v>2.056725566216909e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.39322916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>517781.4069616471</v>
+        <v>642648.3908529723</v>
       </c>
     </row>
     <row r="7">
@@ -12540,28 +12540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>418.7070527627708</v>
+        <v>519.5965549618684</v>
       </c>
       <c r="AB7" t="n">
-        <v>572.8934616414999</v>
+        <v>710.9349294810111</v>
       </c>
       <c r="AC7" t="n">
-        <v>518.2173137234579</v>
+        <v>643.0842976147831</v>
       </c>
       <c r="AD7" t="n">
-        <v>418707.0527627709</v>
+        <v>519596.5549618683</v>
       </c>
       <c r="AE7" t="n">
-        <v>572893.4616414999</v>
+        <v>710934.9294810111</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330249068347166e-06</v>
+        <v>2.058059505253349e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.3671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>518217.3137234579</v>
+        <v>643084.297614783</v>
       </c>
     </row>
   </sheetData>
@@ -12837,28 +12837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.1638296941049</v>
+        <v>811.5287433937629</v>
       </c>
       <c r="AB2" t="n">
-        <v>923.7889379134421</v>
+        <v>1110.369428832719</v>
       </c>
       <c r="AC2" t="n">
-        <v>835.6238182248998</v>
+        <v>1004.397328958205</v>
       </c>
       <c r="AD2" t="n">
-        <v>675163.829694105</v>
+        <v>811528.7433937629</v>
       </c>
       <c r="AE2" t="n">
-        <v>923788.937913442</v>
+        <v>1110369.428832719</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.992998107469677e-07</v>
+        <v>1.510235776644555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.58072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>835623.8182248998</v>
+        <v>1004397.328958204</v>
       </c>
     </row>
     <row r="3">
@@ -12943,28 +12943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>561.8814818520805</v>
+        <v>682.0328723276569</v>
       </c>
       <c r="AB3" t="n">
-        <v>768.7910319315149</v>
+        <v>933.1874650854412</v>
       </c>
       <c r="AC3" t="n">
-        <v>695.4186948489604</v>
+        <v>844.1253631545193</v>
       </c>
       <c r="AD3" t="n">
-        <v>561881.4818520804</v>
+        <v>682032.872327657</v>
       </c>
       <c r="AE3" t="n">
-        <v>768791.0319315149</v>
+        <v>933187.4650854412</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.144446767884715e-06</v>
+        <v>1.729595497504169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>695418.6948489604</v>
+        <v>844125.3631545192</v>
       </c>
     </row>
     <row r="4">
@@ -13049,28 +13049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>518.9610523222133</v>
+        <v>639.1123532892389</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.0654067330373</v>
+        <v>874.4617174174155</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.2977608974929</v>
+        <v>791.0043184218252</v>
       </c>
       <c r="AD4" t="n">
-        <v>518961.0523222132</v>
+        <v>639112.3532892389</v>
       </c>
       <c r="AE4" t="n">
-        <v>710065.4067330373</v>
+        <v>874461.7174174155</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.199556729589652e-06</v>
+        <v>1.812882850229769e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.98177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>642297.760897493</v>
+        <v>791004.3184218253</v>
       </c>
     </row>
     <row r="5">
@@ -13155,28 +13155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>504.8771136316401</v>
+        <v>617.0070385954721</v>
       </c>
       <c r="AB5" t="n">
-        <v>690.7951404770721</v>
+        <v>844.2162506357471</v>
       </c>
       <c r="AC5" t="n">
-        <v>624.8666218070085</v>
+        <v>763.64543654002</v>
       </c>
       <c r="AD5" t="n">
-        <v>504877.1136316401</v>
+        <v>617007.0385954721</v>
       </c>
       <c r="AE5" t="n">
-        <v>690795.1404770721</v>
+        <v>844216.2506357471</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226750840720947e-06</v>
+        <v>1.853981146359567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.35677083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>624866.6218070085</v>
+        <v>763645.43654002</v>
       </c>
     </row>
     <row r="6">
@@ -13261,28 +13261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>486.0143215400582</v>
+        <v>598.2294978499108</v>
       </c>
       <c r="AB6" t="n">
-        <v>664.9862361697142</v>
+        <v>818.5239909810384</v>
       </c>
       <c r="AC6" t="n">
-        <v>601.5208831037202</v>
+        <v>740.4052100874439</v>
       </c>
       <c r="AD6" t="n">
-        <v>486014.3215400582</v>
+        <v>598229.4978499108</v>
       </c>
       <c r="AE6" t="n">
-        <v>664986.2361697141</v>
+        <v>818523.9909810384</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.244459233467108e-06</v>
+        <v>1.880743733507596e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.96614583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>601520.8831037201</v>
+        <v>740405.2100874439</v>
       </c>
     </row>
     <row r="7">
@@ -13367,28 +13367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>478.9246244567199</v>
+        <v>591.1398007665723</v>
       </c>
       <c r="AB7" t="n">
-        <v>655.2857998449298</v>
+        <v>808.823554656254</v>
       </c>
       <c r="AC7" t="n">
-        <v>592.7462428071253</v>
+        <v>731.630569790849</v>
       </c>
       <c r="AD7" t="n">
-        <v>478924.6244567198</v>
+        <v>591139.8007665724</v>
       </c>
       <c r="AE7" t="n">
-        <v>655285.7998449298</v>
+        <v>808823.554656254</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.253738740583001e-06</v>
+        <v>1.894767796641935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>592746.2428071253</v>
+        <v>731630.569790849</v>
       </c>
     </row>
     <row r="8">
@@ -13473,28 +13473,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>472.0294789596285</v>
+        <v>584.244655269481</v>
       </c>
       <c r="AB8" t="n">
-        <v>645.851557583459</v>
+        <v>799.3893123947831</v>
       </c>
       <c r="AC8" t="n">
-        <v>584.212391386047</v>
+        <v>723.0967183697708</v>
       </c>
       <c r="AD8" t="n">
-        <v>472029.4789596285</v>
+        <v>584244.655269481</v>
       </c>
       <c r="AE8" t="n">
-        <v>645851.557583459</v>
+        <v>799389.3123947831</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.261394333953612e-06</v>
+        <v>1.906337648727764e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.6015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>584212.391386047</v>
+        <v>723096.7183697708</v>
       </c>
     </row>
     <row r="9">
@@ -13579,28 +13579,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>464.7010846588011</v>
+        <v>576.7456687680614</v>
       </c>
       <c r="AB9" t="n">
-        <v>635.8245251951281</v>
+        <v>789.1288682316052</v>
       </c>
       <c r="AC9" t="n">
-        <v>575.1423248958301</v>
+        <v>713.8155165969029</v>
       </c>
       <c r="AD9" t="n">
-        <v>464701.0846588011</v>
+        <v>576745.6687680613</v>
       </c>
       <c r="AE9" t="n">
-        <v>635824.5251951281</v>
+        <v>789128.8682316053</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.267090920266423e-06</v>
+        <v>1.914946865263012e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>575142.3248958301</v>
+        <v>713815.5165969029</v>
       </c>
     </row>
     <row r="10">
@@ -13685,28 +13685,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>460.9199088425138</v>
+        <v>565.1137091491728</v>
       </c>
       <c r="AB10" t="n">
-        <v>630.6509536295799</v>
+        <v>773.2135079152011</v>
       </c>
       <c r="AC10" t="n">
-        <v>570.4625117393447</v>
+        <v>699.4190959317477</v>
       </c>
       <c r="AD10" t="n">
-        <v>460919.9088425138</v>
+        <v>565113.7091491728</v>
       </c>
       <c r="AE10" t="n">
-        <v>630650.95362958</v>
+        <v>773213.5079152011</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.271653344598404e-06</v>
+        <v>1.921842029637394e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.39322916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>570462.5117393447</v>
+        <v>699419.0959317477</v>
       </c>
     </row>
     <row r="11">
@@ -13791,28 +13791,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>462.2901938325734</v>
+        <v>566.4839941392324</v>
       </c>
       <c r="AB11" t="n">
-        <v>632.5258380056866</v>
+        <v>775.088392291308</v>
       </c>
       <c r="AC11" t="n">
-        <v>572.1584597820125</v>
+        <v>701.1150439744156</v>
       </c>
       <c r="AD11" t="n">
-        <v>462290.1938325734</v>
+        <v>566483.9941392324</v>
       </c>
       <c r="AE11" t="n">
-        <v>632525.8380056866</v>
+        <v>775088.3922913079</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.271524462555127e-06</v>
+        <v>1.921647250982751e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.39322916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>572158.4597820125</v>
+        <v>701115.0439744156</v>
       </c>
     </row>
   </sheetData>
@@ -14088,28 +14088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.1936240176598</v>
+        <v>573.4052063741848</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.6572186907896</v>
+        <v>784.5583002135036</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.5636174683966</v>
+        <v>709.6811571756161</v>
       </c>
       <c r="AD2" t="n">
-        <v>460193.6240176597</v>
+        <v>573405.2063741848</v>
       </c>
       <c r="AE2" t="n">
-        <v>629657.2186907895</v>
+        <v>784558.3002135035</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.238131937532679e-06</v>
+        <v>1.956852657729929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>569563.6174683967</v>
+        <v>709681.1571756161</v>
       </c>
     </row>
     <row r="3">
@@ -14194,28 +14194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>408.2103223438294</v>
+        <v>513.8630930632133</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.5313719992409</v>
+        <v>703.0901539687843</v>
       </c>
       <c r="AC3" t="n">
-        <v>505.2259217593367</v>
+        <v>635.9882164672315</v>
       </c>
       <c r="AD3" t="n">
-        <v>408210.3223438294</v>
+        <v>513863.0930632134</v>
       </c>
       <c r="AE3" t="n">
-        <v>558531.3719992409</v>
+        <v>703090.1539687843</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.340551711323381e-06</v>
+        <v>2.118725880179732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.17447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>505225.9217593367</v>
+        <v>635988.2164672315</v>
       </c>
     </row>
     <row r="4">
@@ -14300,28 +14300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.4866940953152</v>
+        <v>490.2247161607198</v>
       </c>
       <c r="AB4" t="n">
-        <v>526.0716572170118</v>
+        <v>670.7470838392044</v>
       </c>
       <c r="AC4" t="n">
-        <v>475.8641165984275</v>
+        <v>606.7319235570347</v>
       </c>
       <c r="AD4" t="n">
-        <v>384486.6940953152</v>
+        <v>490224.7161607198</v>
       </c>
       <c r="AE4" t="n">
-        <v>526071.6572170118</v>
+        <v>670747.0838392044</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.373264475137952e-06</v>
+        <v>2.170428010519574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.53645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>475864.1165984275</v>
+        <v>606731.9235570347</v>
       </c>
     </row>
     <row r="5">
@@ -14406,28 +14406,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>384.4660965811013</v>
+        <v>490.0335264459137</v>
       </c>
       <c r="AB5" t="n">
-        <v>526.0434747893661</v>
+        <v>670.4854896367117</v>
       </c>
       <c r="AC5" t="n">
-        <v>475.8386238621221</v>
+        <v>606.495295538078</v>
       </c>
       <c r="AD5" t="n">
-        <v>384466.0965811013</v>
+        <v>490033.5264459137</v>
       </c>
       <c r="AE5" t="n">
-        <v>526043.4747893661</v>
+        <v>670485.4896367117</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.375223323270561e-06</v>
+        <v>2.173523946468067e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.49739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>475838.6238621221</v>
+        <v>606495.2955380781</v>
       </c>
     </row>
   </sheetData>
@@ -14703,28 +14703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1023.328530909587</v>
+        <v>1201.201025756262</v>
       </c>
       <c r="AB2" t="n">
-        <v>1400.163242059032</v>
+        <v>1643.536236688899</v>
       </c>
       <c r="AC2" t="n">
-        <v>1266.53362737837</v>
+        <v>1486.679444976906</v>
       </c>
       <c r="AD2" t="n">
-        <v>1023328.530909587</v>
+        <v>1201201.025756262</v>
       </c>
       <c r="AE2" t="n">
-        <v>1400163.242059032</v>
+        <v>1643536.236688899</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.678037954611275e-07</v>
+        <v>1.11937062597467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.5859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1266533.62737837</v>
+        <v>1486679.444976906</v>
       </c>
     </row>
     <row r="3">
@@ -14809,28 +14809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>762.090002169372</v>
+        <v>906.065766406286</v>
       </c>
       <c r="AB3" t="n">
-        <v>1042.725162006177</v>
+        <v>1239.719154397556</v>
       </c>
       <c r="AC3" t="n">
-        <v>943.2089360182634</v>
+        <v>1121.402098258614</v>
       </c>
       <c r="AD3" t="n">
-        <v>762090.002169372</v>
+        <v>906065.766406286</v>
       </c>
       <c r="AE3" t="n">
-        <v>1042725.162006177</v>
+        <v>1239719.154397556</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.575651897766151e-07</v>
+        <v>1.396021160911375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.5390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>943208.9360182635</v>
+        <v>1121402.098258614</v>
       </c>
     </row>
     <row r="4">
@@ -14915,28 +14915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>694.3924239418033</v>
+        <v>821.4199123823877</v>
       </c>
       <c r="AB4" t="n">
-        <v>950.0983488688506</v>
+        <v>1123.902962610533</v>
       </c>
       <c r="AC4" t="n">
-        <v>859.4222959242145</v>
+        <v>1016.639241266699</v>
       </c>
       <c r="AD4" t="n">
-        <v>694392.4239418033</v>
+        <v>821419.9123823877</v>
       </c>
       <c r="AE4" t="n">
-        <v>950098.3488688506</v>
+        <v>1123902.962610533</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.029162427076986e-06</v>
+        <v>1.500401791495313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.2734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>859422.2959242145</v>
+        <v>1016639.241266699</v>
       </c>
     </row>
     <row r="5">
@@ -15021,28 +15021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>659.3404862674549</v>
+        <v>786.2826338534677</v>
       </c>
       <c r="AB5" t="n">
-        <v>902.1387413604552</v>
+        <v>1075.826587979941</v>
       </c>
       <c r="AC5" t="n">
-        <v>816.0398860446885</v>
+        <v>973.1512083552337</v>
       </c>
       <c r="AD5" t="n">
-        <v>659340.4862674549</v>
+        <v>786282.6338534676</v>
       </c>
       <c r="AE5" t="n">
-        <v>902138.7413604553</v>
+        <v>1075826.58797994</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.07032126670153e-06</v>
+        <v>1.56040669945132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>816039.8860446885</v>
+        <v>973151.2083552338</v>
       </c>
     </row>
     <row r="6">
@@ -15127,28 +15127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>635.5921863898951</v>
+        <v>762.4489931213362</v>
       </c>
       <c r="AB6" t="n">
-        <v>869.6452697669304</v>
+        <v>1043.216349264218</v>
       </c>
       <c r="AC6" t="n">
-        <v>786.6475457751758</v>
+        <v>943.6532450537821</v>
       </c>
       <c r="AD6" t="n">
-        <v>635592.1863898952</v>
+        <v>762448.9931213362</v>
       </c>
       <c r="AE6" t="n">
-        <v>869645.2697669304</v>
+        <v>1043216.349264218</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.094370472412383e-06</v>
+        <v>1.595467706716312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.4765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>786647.5457751758</v>
+        <v>943653.2450537821</v>
       </c>
     </row>
     <row r="7">
@@ -15233,28 +15233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>627.2869037657297</v>
+        <v>745.8402095538734</v>
       </c>
       <c r="AB7" t="n">
-        <v>858.2816156773371</v>
+        <v>1020.491478859398</v>
       </c>
       <c r="AC7" t="n">
-        <v>776.3684228829045</v>
+        <v>923.0972043858422</v>
       </c>
       <c r="AD7" t="n">
-        <v>627286.9037657296</v>
+        <v>745840.2095538734</v>
       </c>
       <c r="AE7" t="n">
-        <v>858281.615677337</v>
+        <v>1020491.478859398</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.106813842531432e-06</v>
+        <v>1.613608725400686e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.15104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>776368.4228829045</v>
+        <v>923097.2043858422</v>
       </c>
     </row>
     <row r="8">
@@ -15339,28 +15339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>609.0559529031593</v>
+        <v>735.998010980621</v>
       </c>
       <c r="AB8" t="n">
-        <v>833.3372244143807</v>
+        <v>1007.024948564317</v>
       </c>
       <c r="AC8" t="n">
-        <v>753.8046893124117</v>
+        <v>910.9159008417304</v>
       </c>
       <c r="AD8" t="n">
-        <v>609055.9529031593</v>
+        <v>735998.010980621</v>
       </c>
       <c r="AE8" t="n">
-        <v>833337.2244143806</v>
+        <v>1007024.948564317</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.121482661537156e-06</v>
+        <v>1.634994195503612e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.78645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>753804.6893124117</v>
+        <v>910915.9008417304</v>
       </c>
     </row>
     <row r="9">
@@ -15445,28 +15445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>603.3211123284817</v>
+        <v>721.9596694626464</v>
       </c>
       <c r="AB9" t="n">
-        <v>825.4905625367967</v>
+        <v>987.8170703715067</v>
       </c>
       <c r="AC9" t="n">
-        <v>746.7069018315652</v>
+        <v>893.5411955852152</v>
       </c>
       <c r="AD9" t="n">
-        <v>603321.1123284817</v>
+        <v>721959.6694626464</v>
       </c>
       <c r="AE9" t="n">
-        <v>825490.5625367967</v>
+        <v>987817.0703715067</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.129187979187798e-06</v>
+        <v>1.646227672458166e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.59114583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>746706.9018315652</v>
+        <v>893541.1955852152</v>
       </c>
     </row>
     <row r="10">
@@ -15551,28 +15551,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>598.1540478523981</v>
+        <v>716.6220127859705</v>
       </c>
       <c r="AB10" t="n">
-        <v>818.4207569658226</v>
+        <v>980.5138530256856</v>
       </c>
       <c r="AC10" t="n">
-        <v>740.3118285817507</v>
+        <v>886.9349870527494</v>
       </c>
       <c r="AD10" t="n">
-        <v>598154.0478523981</v>
+        <v>716622.0127859705</v>
       </c>
       <c r="AE10" t="n">
-        <v>818420.7569658227</v>
+        <v>980513.8530256856</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.135218227783952e-06</v>
+        <v>1.655019089205209e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.44791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>740311.8285817506</v>
+        <v>886934.9870527494</v>
       </c>
     </row>
     <row r="11">
@@ -15657,28 +15657,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>592.8732082646574</v>
+        <v>711.3411731982299</v>
       </c>
       <c r="AB11" t="n">
-        <v>811.1952792676756</v>
+        <v>973.2883753275386</v>
       </c>
       <c r="AC11" t="n">
-        <v>733.7759403340931</v>
+        <v>880.3990988050919</v>
       </c>
       <c r="AD11" t="n">
-        <v>592873.2082646574</v>
+        <v>711341.1731982299</v>
       </c>
       <c r="AE11" t="n">
-        <v>811195.2792676756</v>
+        <v>973288.3753275386</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.141535631075161e-06</v>
+        <v>1.664229144844968e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>733775.9403340931</v>
+        <v>880399.0988050918</v>
       </c>
     </row>
     <row r="12">
@@ -15763,28 +15763,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>587.4871073541481</v>
+        <v>705.9550722877204</v>
       </c>
       <c r="AB12" t="n">
-        <v>803.8257783839149</v>
+        <v>965.9188744437778</v>
       </c>
       <c r="AC12" t="n">
-        <v>727.109774271519</v>
+        <v>873.7329327425176</v>
       </c>
       <c r="AD12" t="n">
-        <v>587487.1073541481</v>
+        <v>705955.0722877204</v>
       </c>
       <c r="AE12" t="n">
-        <v>803825.7783839148</v>
+        <v>965918.8744437778</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.147685527460922e-06</v>
+        <v>1.673194994463976e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.1484375</v>
       </c>
       <c r="AH12" t="n">
-        <v>727109.7742715189</v>
+        <v>873732.9327425177</v>
       </c>
     </row>
     <row r="13">
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>583.7626610004811</v>
+        <v>702.2306259340535</v>
       </c>
       <c r="AB13" t="n">
-        <v>798.729826571851</v>
+        <v>960.8229226317142</v>
       </c>
       <c r="AC13" t="n">
-        <v>722.5001729481852</v>
+        <v>869.1233314191841</v>
       </c>
       <c r="AD13" t="n">
-        <v>583762.6610004811</v>
+        <v>702230.6259340534</v>
       </c>
       <c r="AE13" t="n">
-        <v>798729.826571851</v>
+        <v>960822.9226317141</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.151251031591188e-06</v>
+        <v>1.678393094048537e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.0703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>722500.1729481852</v>
+        <v>869123.3314191841</v>
       </c>
     </row>
     <row r="14">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>580.3539551698307</v>
+        <v>690.518419160106</v>
       </c>
       <c r="AB14" t="n">
-        <v>794.0658848728674</v>
+        <v>944.7977646175036</v>
       </c>
       <c r="AC14" t="n">
-        <v>718.2813512990692</v>
+        <v>854.6275919943993</v>
       </c>
       <c r="AD14" t="n">
-        <v>580353.9551698307</v>
+        <v>690518.419160106</v>
       </c>
       <c r="AE14" t="n">
-        <v>794065.8848728674</v>
+        <v>944797.7646175036</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.153715776057076e-06</v>
+        <v>1.681986411211019e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.00520833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>718281.3512990692</v>
+        <v>854627.5919943993</v>
       </c>
     </row>
     <row r="15">
@@ -16081,28 +16081,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>567.897891495819</v>
+        <v>686.4511077754121</v>
       </c>
       <c r="AB15" t="n">
-        <v>777.0229490313386</v>
+        <v>939.232689743851</v>
       </c>
       <c r="AC15" t="n">
-        <v>702.8649693343453</v>
+        <v>849.5936400560564</v>
       </c>
       <c r="AD15" t="n">
-        <v>567897.891495819</v>
+        <v>686451.107775412</v>
       </c>
       <c r="AE15" t="n">
-        <v>777022.9490313386</v>
+        <v>939232.689743851</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.156587323007626e-06</v>
+        <v>1.686172800138183e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26.94010416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>702864.9693343453</v>
+        <v>849593.6400560564</v>
       </c>
     </row>
     <row r="16">
@@ -16187,28 +16187,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>563.9296219406832</v>
+        <v>682.4828382202763</v>
       </c>
       <c r="AB16" t="n">
-        <v>771.5933875583047</v>
+        <v>933.803128270817</v>
       </c>
       <c r="AC16" t="n">
-        <v>697.9535975878604</v>
+        <v>844.6822683095716</v>
       </c>
       <c r="AD16" t="n">
-        <v>563929.6219406832</v>
+        <v>682482.8382202763</v>
       </c>
       <c r="AE16" t="n">
-        <v>771593.3875583047</v>
+        <v>933803.128270817</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.159698165537388e-06</v>
+        <v>1.690708054809276e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>26.86197916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>697953.5975878604</v>
+        <v>844682.2683095715</v>
       </c>
     </row>
     <row r="17">
@@ -16293,28 +16293,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>559.456306134851</v>
+        <v>678.0095224144441</v>
       </c>
       <c r="AB17" t="n">
-        <v>765.4727995239999</v>
+        <v>927.6825402365122</v>
       </c>
       <c r="AC17" t="n">
-        <v>692.4171498852504</v>
+        <v>839.1458206069614</v>
       </c>
       <c r="AD17" t="n">
-        <v>559456.3061348511</v>
+        <v>678009.522414444</v>
       </c>
       <c r="AE17" t="n">
-        <v>765472.7995239999</v>
+        <v>927682.5402365122</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.162569712487937e-06</v>
+        <v>1.694894443736439e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>26.796875</v>
       </c>
       <c r="AH17" t="n">
-        <v>692417.1498852504</v>
+        <v>839145.8206069614</v>
       </c>
     </row>
     <row r="18">
@@ -16399,28 +16399,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>558.327255273059</v>
+        <v>676.8804715526521</v>
       </c>
       <c r="AB18" t="n">
-        <v>763.9279823246875</v>
+        <v>926.1377230371999</v>
       </c>
       <c r="AC18" t="n">
-        <v>691.0197678712758</v>
+        <v>837.7484385929869</v>
       </c>
       <c r="AD18" t="n">
-        <v>558327.255273059</v>
+        <v>676880.4715526521</v>
       </c>
       <c r="AE18" t="n">
-        <v>763927.9823246875</v>
+        <v>926137.7230371998</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.162641501161701e-06</v>
+        <v>1.694999103459619e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>26.796875</v>
       </c>
       <c r="AH18" t="n">
-        <v>691019.7678712758</v>
+        <v>837748.4385929869</v>
       </c>
     </row>
     <row r="19">
@@ -16505,28 +16505,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>553.7256765153026</v>
+        <v>672.2788927948957</v>
       </c>
       <c r="AB19" t="n">
-        <v>757.6318992609979</v>
+        <v>919.8416399735103</v>
       </c>
       <c r="AC19" t="n">
-        <v>685.3245741385766</v>
+        <v>832.0532448602878</v>
       </c>
       <c r="AD19" t="n">
-        <v>553725.6765153025</v>
+        <v>672278.8927948957</v>
       </c>
       <c r="AE19" t="n">
-        <v>757631.8992609979</v>
+        <v>919841.6399735103</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.165345541206802e-06</v>
+        <v>1.698941286366031e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26.73177083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>685324.5741385766</v>
+        <v>832053.2448602878</v>
       </c>
     </row>
     <row r="20">
@@ -16611,28 +16611,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>551.531188166857</v>
+        <v>670.0844044464501</v>
       </c>
       <c r="AB20" t="n">
-        <v>754.6293034886615</v>
+        <v>916.8390442011738</v>
       </c>
       <c r="AC20" t="n">
-        <v>682.6085418925825</v>
+        <v>829.3372126142934</v>
       </c>
       <c r="AD20" t="n">
-        <v>551531.188166857</v>
+        <v>670084.4044464501</v>
       </c>
       <c r="AE20" t="n">
-        <v>754629.3034886615</v>
+        <v>916839.0442011738</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.165034456953826e-06</v>
+        <v>1.698487760898921e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>682608.5418925824</v>
+        <v>829337.2126142934</v>
       </c>
     </row>
     <row r="21">
@@ -16717,28 +16717,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>547.9104221596382</v>
+        <v>666.4636384392312</v>
       </c>
       <c r="AB21" t="n">
-        <v>749.6752117006622</v>
+        <v>911.8849524131745</v>
       </c>
       <c r="AC21" t="n">
-        <v>678.1272616717182</v>
+        <v>824.8559323934294</v>
       </c>
       <c r="AD21" t="n">
-        <v>547910.4221596381</v>
+        <v>666463.6384392312</v>
       </c>
       <c r="AE21" t="n">
-        <v>749675.2117006622</v>
+        <v>911884.9524131744</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.168647820199934e-06</v>
+        <v>1.703755633632268e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>678127.2616717182</v>
+        <v>824855.9323934293</v>
       </c>
     </row>
     <row r="22">
@@ -16823,28 +16823,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>549.519315772816</v>
+        <v>668.072532052409</v>
       </c>
       <c r="AB22" t="n">
-        <v>751.8765709215887</v>
+        <v>914.0863116341011</v>
       </c>
       <c r="AC22" t="n">
-        <v>680.1185262582266</v>
+        <v>826.8471969799378</v>
       </c>
       <c r="AD22" t="n">
-        <v>549519.315772816</v>
+        <v>668072.532052409</v>
       </c>
       <c r="AE22" t="n">
-        <v>751876.5709215887</v>
+        <v>914086.3116341011</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.168432454178643e-06</v>
+        <v>1.703441654462731e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>680118.5262582266</v>
+        <v>826847.1969799378</v>
       </c>
     </row>
   </sheetData>
@@ -17120,28 +17120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.5057298029832</v>
+        <v>522.9508186640685</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.0402938679715</v>
+        <v>715.5243810580321</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.3045184532272</v>
+        <v>647.2357383746288</v>
       </c>
       <c r="AD2" t="n">
-        <v>411505.7298029832</v>
+        <v>522950.8186640685</v>
       </c>
       <c r="AE2" t="n">
-        <v>563040.2938679715</v>
+        <v>715524.381058032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305800074001698e-06</v>
+        <v>2.092198447955999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.5546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>509304.5184532272</v>
+        <v>647235.7383746288</v>
       </c>
     </row>
     <row r="3">
@@ -17226,28 +17226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.4417335382605</v>
+        <v>469.451460418302</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.0135019784884</v>
+        <v>642.3241988810649</v>
       </c>
       <c r="AC3" t="n">
-        <v>452.2929151230182</v>
+        <v>581.0216788475306</v>
       </c>
       <c r="AD3" t="n">
-        <v>365441.7335382605</v>
+        <v>469451.460418302</v>
       </c>
       <c r="AE3" t="n">
-        <v>500013.5019784883</v>
+        <v>642324.1988810649</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.395465184243585e-06</v>
+        <v>2.235863016689692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>452292.9151230182</v>
+        <v>581021.6788475305</v>
       </c>
     </row>
     <row r="4">
@@ -17332,28 +17332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.8850315277407</v>
+        <v>467.8947584077823</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.8835536108495</v>
+        <v>640.194250513426</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.3662460381855</v>
+        <v>579.0950097626977</v>
       </c>
       <c r="AD4" t="n">
-        <v>363885.0315277407</v>
+        <v>467894.7584077822</v>
       </c>
       <c r="AE4" t="n">
-        <v>497883.5536108495</v>
+        <v>640194.250513426</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401421857169267e-06</v>
+        <v>2.245407005925275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.6015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>450366.2460381855</v>
+        <v>579095.0097626977</v>
       </c>
     </row>
   </sheetData>
@@ -17629,28 +17629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>816.5483111038104</v>
+        <v>972.7234216661318</v>
       </c>
       <c r="AB2" t="n">
-        <v>1117.237422821304</v>
+        <v>1330.923099052281</v>
       </c>
       <c r="AC2" t="n">
-        <v>1010.609851239809</v>
+        <v>1203.901666441032</v>
       </c>
       <c r="AD2" t="n">
-        <v>816548.3111038104</v>
+        <v>972723.4216661318</v>
       </c>
       <c r="AE2" t="n">
-        <v>1117237.422821304</v>
+        <v>1330923.099052281</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.893509022234046e-07</v>
+        <v>1.320546637027381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.41927083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1010609.851239809</v>
+        <v>1203901.666441032</v>
       </c>
     </row>
     <row r="3">
@@ -17735,28 +17735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.3230742407511</v>
+        <v>774.9691385377459</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.2230115871724</v>
+        <v>1060.346964572783</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.2157627620478</v>
+        <v>959.1489384802669</v>
       </c>
       <c r="AD3" t="n">
-        <v>643323.0742407511</v>
+        <v>774969.1385377459</v>
       </c>
       <c r="AE3" t="n">
-        <v>880223.0115871724</v>
+        <v>1060346.964572783</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.058747520026895e-06</v>
+        <v>1.572074052589634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>796215.7627620478</v>
+        <v>959148.938480267</v>
       </c>
     </row>
     <row r="4">
@@ -17841,28 +17841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.8476182209359</v>
+        <v>716.2604696959578</v>
       </c>
       <c r="AB4" t="n">
-        <v>811.160265840903</v>
+        <v>980.019173819775</v>
       </c>
       <c r="AC4" t="n">
-        <v>733.7442685396297</v>
+        <v>886.4875193359641</v>
       </c>
       <c r="AD4" t="n">
-        <v>592847.6182209359</v>
+        <v>716260.4696959578</v>
       </c>
       <c r="AE4" t="n">
-        <v>811160.2658409029</v>
+        <v>980019.173819775</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.118803833050485e-06</v>
+        <v>1.66124826042739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.95833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>733744.2685396298</v>
+        <v>886487.5193359641</v>
       </c>
     </row>
     <row r="5">
@@ -17947,28 +17947,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>574.7647423424904</v>
+        <v>689.9444705040904</v>
       </c>
       <c r="AB5" t="n">
-        <v>786.418477303833</v>
+        <v>944.0124627455154</v>
       </c>
       <c r="AC5" t="n">
-        <v>711.3638015752194</v>
+        <v>853.9172382308955</v>
       </c>
       <c r="AD5" t="n">
-        <v>574764.7423424905</v>
+        <v>689944.4705040904</v>
       </c>
       <c r="AE5" t="n">
-        <v>786418.477303833</v>
+        <v>944012.4627455154</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.151220310212762e-06</v>
+        <v>1.709381646016701e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.13802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>711363.8015752195</v>
+        <v>853917.2382308955</v>
       </c>
     </row>
     <row r="6">
@@ -18053,28 +18053,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>553.9801825002106</v>
+        <v>669.2451620078313</v>
       </c>
       <c r="AB6" t="n">
-        <v>757.9801255775607</v>
+        <v>915.6907556718924</v>
       </c>
       <c r="AC6" t="n">
-        <v>685.6395662242252</v>
+        <v>828.2985151306136</v>
       </c>
       <c r="AD6" t="n">
-        <v>553980.1825002106</v>
+        <v>669245.1620078313</v>
       </c>
       <c r="AE6" t="n">
-        <v>757980.1255775606</v>
+        <v>915690.7556718923</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.17286446610776e-06</v>
+        <v>1.741519823654997e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.6171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>685639.5662242252</v>
+        <v>828298.5151306136</v>
       </c>
     </row>
     <row r="7">
@@ -18159,28 +18159,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>545.9325753320481</v>
+        <v>661.0269626390764</v>
       </c>
       <c r="AB7" t="n">
-        <v>746.9690344147095</v>
+        <v>904.4462527341944</v>
       </c>
       <c r="AC7" t="n">
-        <v>675.6793581477932</v>
+        <v>818.1271717715302</v>
       </c>
       <c r="AD7" t="n">
-        <v>545932.5753320481</v>
+        <v>661026.9626390764</v>
       </c>
       <c r="AE7" t="n">
-        <v>746969.0344147095</v>
+        <v>904446.2527341944</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.185129487781591e-06</v>
+        <v>1.759731457650032e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.33072916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>675679.3581477932</v>
+        <v>818127.1717715303</v>
       </c>
     </row>
     <row r="8">
@@ -18265,28 +18265,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>538.3069904477522</v>
+        <v>653.4013777547807</v>
       </c>
       <c r="AB8" t="n">
-        <v>736.5353727589541</v>
+        <v>894.012591078439</v>
       </c>
       <c r="AC8" t="n">
-        <v>666.241470516727</v>
+        <v>808.6892841404641</v>
       </c>
       <c r="AD8" t="n">
-        <v>538306.9904477523</v>
+        <v>653401.3777547807</v>
       </c>
       <c r="AE8" t="n">
-        <v>736535.3727589541</v>
+        <v>894012.5910784389</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.195802295688435e-06</v>
+        <v>1.775578903864778e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>666241.470516727</v>
+        <v>808689.2841404642</v>
       </c>
     </row>
     <row r="9">
@@ -18371,28 +18371,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>524.1608486977849</v>
+        <v>639.340487350834</v>
       </c>
       <c r="AB9" t="n">
-        <v>717.1799975329203</v>
+        <v>874.7738605050545</v>
       </c>
       <c r="AC9" t="n">
-        <v>648.7333451368262</v>
+        <v>791.2866710112756</v>
       </c>
       <c r="AD9" t="n">
-        <v>524160.8486977849</v>
+        <v>639340.487350834</v>
       </c>
       <c r="AE9" t="n">
-        <v>717179.9975329203</v>
+        <v>874773.8605050545</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.201872610675078e-06</v>
+        <v>1.784592369777128e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>648733.3451368262</v>
+        <v>791286.6710112756</v>
       </c>
     </row>
     <row r="10">
@@ -18477,28 +18477,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>519.1573621052933</v>
+        <v>634.3370007583424</v>
       </c>
       <c r="AB10" t="n">
-        <v>710.3340064388236</v>
+        <v>867.9278694109579</v>
       </c>
       <c r="AC10" t="n">
-        <v>642.5407258243413</v>
+        <v>785.0940516987907</v>
       </c>
       <c r="AD10" t="n">
-        <v>519157.3621052933</v>
+        <v>634337.0007583423</v>
       </c>
       <c r="AE10" t="n">
-        <v>710334.0064388236</v>
+        <v>867927.8694109579</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.206027293473313e-06</v>
+        <v>1.790761422266318e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.86197916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>642540.7258243413</v>
+        <v>785094.0516987907</v>
       </c>
     </row>
     <row r="11">
@@ -18583,28 +18583,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>513.1286897514219</v>
+        <v>628.3083284044708</v>
       </c>
       <c r="AB11" t="n">
-        <v>702.0853109580037</v>
+        <v>859.6791739301376</v>
       </c>
       <c r="AC11" t="n">
-        <v>635.0792742630937</v>
+        <v>777.6326001375432</v>
       </c>
       <c r="AD11" t="n">
-        <v>513128.6897514219</v>
+        <v>628308.3284044708</v>
       </c>
       <c r="AE11" t="n">
-        <v>702085.3109580036</v>
+        <v>859679.1739301377</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.21381421392749e-06</v>
+        <v>1.802323778129291e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>635079.2742630937</v>
+        <v>777632.6001375433</v>
       </c>
     </row>
     <row r="12">
@@ -18689,28 +18689,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>508.1443003896449</v>
+        <v>623.323939042694</v>
       </c>
       <c r="AB12" t="n">
-        <v>695.2654495374812</v>
+        <v>852.8593125096152</v>
       </c>
       <c r="AC12" t="n">
-        <v>628.9102908448104</v>
+        <v>771.4636167192599</v>
       </c>
       <c r="AD12" t="n">
-        <v>508144.3003896449</v>
+        <v>623323.9390426939</v>
       </c>
       <c r="AE12" t="n">
-        <v>695265.4495374812</v>
+        <v>852859.3125096152</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.215680089435679e-06</v>
+        <v>1.805094310684317e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>628910.2908448104</v>
+        <v>771463.6167192599</v>
       </c>
     </row>
     <row r="13">
@@ -18795,28 +18795,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>502.5455606919258</v>
+        <v>617.725199344975</v>
       </c>
       <c r="AB13" t="n">
-        <v>687.6050068840988</v>
+        <v>845.1988698562328</v>
       </c>
       <c r="AC13" t="n">
-        <v>621.980950086768</v>
+        <v>764.5342759612174</v>
       </c>
       <c r="AD13" t="n">
-        <v>502545.5606919258</v>
+        <v>617725.1993449749</v>
       </c>
       <c r="AE13" t="n">
-        <v>687605.0068840988</v>
+        <v>845198.8698562328</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.221128445919592e-06</v>
+        <v>1.813184265744992e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.5234375</v>
       </c>
       <c r="AH13" t="n">
-        <v>621980.950086768</v>
+        <v>764534.2759612175</v>
       </c>
     </row>
     <row r="14">
@@ -18901,28 +18901,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>498.7442395256685</v>
+        <v>613.9238781787176</v>
       </c>
       <c r="AB14" t="n">
-        <v>682.4038715619715</v>
+        <v>839.9977345341057</v>
       </c>
       <c r="AC14" t="n">
-        <v>617.2762038199453</v>
+        <v>759.8295296943949</v>
       </c>
       <c r="AD14" t="n">
-        <v>498744.2395256686</v>
+        <v>613923.8781787176</v>
       </c>
       <c r="AE14" t="n">
-        <v>682403.8715619715</v>
+        <v>839997.7345341056</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.220606000777299e-06</v>
+        <v>1.812408516629584e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.53645833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>617276.2038199453</v>
+        <v>759829.5296943949</v>
       </c>
     </row>
     <row r="15">
@@ -19007,28 +19007,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>499.1885617360387</v>
+        <v>614.1976081884955</v>
       </c>
       <c r="AB15" t="n">
-        <v>683.0118128123123</v>
+        <v>840.3722640095995</v>
       </c>
       <c r="AC15" t="n">
-        <v>617.8261240106044</v>
+        <v>760.1683146024029</v>
       </c>
       <c r="AD15" t="n">
-        <v>499188.5617360387</v>
+        <v>614197.6081884955</v>
       </c>
       <c r="AE15" t="n">
-        <v>683011.8128123123</v>
+        <v>840372.2640095995</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22336749652942e-06</v>
+        <v>1.816508904811022e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26.484375</v>
       </c>
       <c r="AH15" t="n">
-        <v>617826.1240106045</v>
+        <v>760168.314602403</v>
       </c>
     </row>
   </sheetData>
@@ -19304,28 +19304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>917.475936121621</v>
+        <v>1084.390125499391</v>
       </c>
       <c r="AB2" t="n">
-        <v>1255.331051983238</v>
+        <v>1483.710409624232</v>
       </c>
       <c r="AC2" t="n">
-        <v>1135.524018250154</v>
+        <v>1342.107170530334</v>
       </c>
       <c r="AD2" t="n">
-        <v>917475.9361216209</v>
+        <v>1084390.125499391</v>
       </c>
       <c r="AE2" t="n">
-        <v>1255331.051983238</v>
+        <v>1483710.409624232</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.253164056647072e-07</v>
+        <v>1.213580301622221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.46354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1135524.018250154</v>
+        <v>1342107.170530334</v>
       </c>
     </row>
     <row r="3">
@@ -19410,28 +19410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>701.0984365904008</v>
+        <v>834.834534536748</v>
       </c>
       <c r="AB3" t="n">
-        <v>959.2738112230599</v>
+        <v>1142.257440453491</v>
       </c>
       <c r="AC3" t="n">
-        <v>867.7220650291803</v>
+        <v>1033.241993504995</v>
       </c>
       <c r="AD3" t="n">
-        <v>701098.4365904008</v>
+        <v>834834.5345367481</v>
       </c>
       <c r="AE3" t="n">
-        <v>959273.8112230599</v>
+        <v>1142257.440453491</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007135623275111e-06</v>
+        <v>1.480935002720932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>867722.0650291803</v>
+        <v>1033241.993504995</v>
       </c>
     </row>
     <row r="4">
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>641.7281370297137</v>
+        <v>767.1057288544143</v>
       </c>
       <c r="AB4" t="n">
-        <v>878.0407481313674</v>
+        <v>1049.587900534896</v>
       </c>
       <c r="AC4" t="n">
-        <v>794.241771467639</v>
+        <v>949.4167044137156</v>
       </c>
       <c r="AD4" t="n">
-        <v>641728.1370297137</v>
+        <v>767105.7288544143</v>
       </c>
       <c r="AE4" t="n">
-        <v>878040.7481313674</v>
+        <v>1049587.900534896</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.074949145649711e-06</v>
+        <v>1.580650886680794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>794241.7714676389</v>
+        <v>949416.7044137156</v>
       </c>
     </row>
     <row r="5">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>613.91179603225</v>
+        <v>739.2040470023786</v>
       </c>
       <c r="AB5" t="n">
-        <v>839.9812032082818</v>
+        <v>1011.411588489613</v>
       </c>
       <c r="AC5" t="n">
-        <v>759.8145760951057</v>
+        <v>914.8838860092436</v>
       </c>
       <c r="AD5" t="n">
-        <v>613911.7960322499</v>
+        <v>739204.0470023786</v>
       </c>
       <c r="AE5" t="n">
-        <v>839981.2032082819</v>
+        <v>1011411.588489613</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.108100256515799e-06</v>
+        <v>1.629397688329037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.64583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>759814.5760951057</v>
+        <v>914883.8860092437</v>
       </c>
     </row>
     <row r="6">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>600.5634843976777</v>
+        <v>717.4973187547109</v>
       </c>
       <c r="AB6" t="n">
-        <v>821.7174543439124</v>
+        <v>981.7114852678902</v>
       </c>
       <c r="AC6" t="n">
-        <v>743.2938937890192</v>
+        <v>888.0183189546453</v>
       </c>
       <c r="AD6" t="n">
-        <v>600563.4843976777</v>
+        <v>717497.318754711</v>
       </c>
       <c r="AE6" t="n">
-        <v>821717.4543439124</v>
+        <v>981711.4852678903</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.129745981846009e-06</v>
+        <v>1.661226482346419e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.09895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>743293.8937890192</v>
+        <v>888018.3189546453</v>
       </c>
     </row>
     <row r="7">
@@ -19834,28 +19834,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>581.4214906167982</v>
+        <v>698.4405763198519</v>
       </c>
       <c r="AB7" t="n">
-        <v>795.5265339677482</v>
+        <v>955.6372095443753</v>
       </c>
       <c r="AC7" t="n">
-        <v>719.6025980943684</v>
+        <v>864.4325355107069</v>
       </c>
       <c r="AD7" t="n">
-        <v>581421.4906167982</v>
+        <v>698440.5763198519</v>
       </c>
       <c r="AE7" t="n">
-        <v>795526.5339677482</v>
+        <v>955637.2095443753</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.146955308516199e-06</v>
+        <v>1.686531807319699e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.66927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>719602.5980943685</v>
+        <v>864432.5355107068</v>
       </c>
     </row>
     <row r="8">
@@ -19940,28 +19940,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>574.2667382347228</v>
+        <v>691.1152317371846</v>
       </c>
       <c r="AB8" t="n">
-        <v>785.7370861131949</v>
+        <v>945.6143499149749</v>
       </c>
       <c r="AC8" t="n">
-        <v>710.7474414034772</v>
+        <v>855.3662435371646</v>
       </c>
       <c r="AD8" t="n">
-        <v>574266.7382347228</v>
+        <v>691115.2317371846</v>
       </c>
       <c r="AE8" t="n">
-        <v>785737.0861131949</v>
+        <v>945614.3499149749</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.157022520860092e-06</v>
+        <v>1.701335063996702e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>710747.4414034772</v>
+        <v>855366.2435371645</v>
       </c>
     </row>
     <row r="9">
@@ -20046,28 +20046,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>568.9961025497627</v>
+        <v>685.8445960522242</v>
       </c>
       <c r="AB9" t="n">
-        <v>778.5255698449965</v>
+        <v>938.4028336467767</v>
       </c>
       <c r="AC9" t="n">
-        <v>704.2241821264893</v>
+        <v>848.8429842601765</v>
       </c>
       <c r="AD9" t="n">
-        <v>568996.1025497627</v>
+        <v>685844.5960522243</v>
       </c>
       <c r="AE9" t="n">
-        <v>778525.5698449966</v>
+        <v>938402.8336467767</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.162677710360778e-06</v>
+        <v>1.709650694866108e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.3046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>704224.1821264892</v>
+        <v>848842.9842601765</v>
       </c>
     </row>
     <row r="10">
@@ -20152,28 +20152,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>562.2756775702667</v>
+        <v>679.1241710727282</v>
       </c>
       <c r="AB10" t="n">
-        <v>769.3303879038249</v>
+        <v>929.207651705605</v>
       </c>
       <c r="AC10" t="n">
-        <v>695.9065754442641</v>
+        <v>840.5253775779514</v>
       </c>
       <c r="AD10" t="n">
-        <v>562275.6775702666</v>
+        <v>679124.1710727282</v>
       </c>
       <c r="AE10" t="n">
-        <v>769330.3879038249</v>
+        <v>929207.651705605</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.171916144933018e-06</v>
+        <v>1.723235281501905e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>695906.5754442641</v>
+        <v>840525.3775779514</v>
       </c>
     </row>
     <row r="11">
@@ -20258,28 +20258,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>548.7812745596517</v>
+        <v>665.715019408134</v>
       </c>
       <c r="AB11" t="n">
-        <v>750.8667503736571</v>
+        <v>910.8606588280865</v>
       </c>
       <c r="AC11" t="n">
-        <v>679.2050815660975</v>
+        <v>823.9293959504971</v>
       </c>
       <c r="AD11" t="n">
-        <v>548781.2745596517</v>
+        <v>665715.019408134</v>
       </c>
       <c r="AE11" t="n">
-        <v>750866.7503736571</v>
+        <v>910860.6588280865</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.176669429211612e-06</v>
+        <v>1.730224712620587e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.97916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>679205.0815660976</v>
+        <v>823929.3959504971</v>
       </c>
     </row>
     <row r="12">
@@ -20364,28 +20364,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>545.0653416640858</v>
+        <v>661.9990865125682</v>
       </c>
       <c r="AB12" t="n">
-        <v>745.7824470505544</v>
+        <v>905.7763555049838</v>
       </c>
       <c r="AC12" t="n">
-        <v>674.6060170162873</v>
+        <v>819.3303314006866</v>
       </c>
       <c r="AD12" t="n">
-        <v>545065.3416640859</v>
+        <v>661999.0865125682</v>
       </c>
       <c r="AE12" t="n">
-        <v>745782.4470505544</v>
+        <v>905776.3555049838</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.1804964324513e-06</v>
+        <v>1.735852100752039e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.88802083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>674606.0170162873</v>
+        <v>819330.3314006866</v>
       </c>
     </row>
     <row r="13">
@@ -20470,28 +20470,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>540.9772718592729</v>
+        <v>657.9110167077553</v>
       </c>
       <c r="AB13" t="n">
-        <v>740.1889695906983</v>
+        <v>900.1828780451279</v>
       </c>
       <c r="AC13" t="n">
-        <v>669.546373194705</v>
+        <v>814.2706875791044</v>
       </c>
       <c r="AD13" t="n">
-        <v>540977.271859273</v>
+        <v>657911.0167077553</v>
       </c>
       <c r="AE13" t="n">
-        <v>740188.9695906984</v>
+        <v>900182.878045128</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.182617128514057e-06</v>
+        <v>1.738970462328066e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.8359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>669546.373194705</v>
+        <v>814270.6875791044</v>
       </c>
     </row>
     <row r="14">
@@ -20576,28 +20576,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>536.8601493155849</v>
+        <v>653.7938941640672</v>
       </c>
       <c r="AB14" t="n">
-        <v>734.5557408917967</v>
+        <v>894.5496493462263</v>
       </c>
       <c r="AC14" t="n">
-        <v>664.4507719365405</v>
+        <v>809.17508632094</v>
       </c>
       <c r="AD14" t="n">
-        <v>536860.1493155849</v>
+        <v>653793.8941640672</v>
       </c>
       <c r="AE14" t="n">
-        <v>734555.7408917968</v>
+        <v>894549.6493462262</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.185347219997146e-06</v>
+        <v>1.742984904816745e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>664450.7719365405</v>
+        <v>809175.0863209399</v>
       </c>
     </row>
     <row r="15">
@@ -20682,28 +20682,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>532.2133202408904</v>
+        <v>649.1470650893725</v>
       </c>
       <c r="AB15" t="n">
-        <v>728.1977443481693</v>
+        <v>888.1916528025988</v>
       </c>
       <c r="AC15" t="n">
-        <v>658.6995736595326</v>
+        <v>803.423888043932</v>
       </c>
       <c r="AD15" t="n">
-        <v>532213.3202408904</v>
+        <v>649147.0650893726</v>
       </c>
       <c r="AE15" t="n">
-        <v>728197.7443481693</v>
+        <v>888191.6528025988</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.188832961801448e-06</v>
+        <v>1.748110487637112e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>658699.5736595326</v>
+        <v>803423.888043932</v>
       </c>
     </row>
     <row r="16">
@@ -20788,28 +20788,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>528.6938414248896</v>
+        <v>645.6275862733717</v>
       </c>
       <c r="AB16" t="n">
-        <v>723.3822381636701</v>
+        <v>883.3761466180994</v>
       </c>
       <c r="AC16" t="n">
-        <v>654.3436526266763</v>
+        <v>799.0679670110759</v>
       </c>
       <c r="AD16" t="n">
-        <v>528693.8414248895</v>
+        <v>645627.5862733717</v>
       </c>
       <c r="AE16" t="n">
-        <v>723382.2381636701</v>
+        <v>883376.1466180994</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.191831187269484e-06</v>
+        <v>1.752519205727357e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>26.62760416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>654343.6526266764</v>
+        <v>799067.9670110759</v>
       </c>
     </row>
     <row r="17">
@@ -20894,28 +20894,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>523.0390788376092</v>
+        <v>639.9728236860915</v>
       </c>
       <c r="AB17" t="n">
-        <v>715.6451425212344</v>
+        <v>875.6390509756638</v>
       </c>
       <c r="AC17" t="n">
-        <v>647.344974533273</v>
+        <v>792.0692889176725</v>
       </c>
       <c r="AD17" t="n">
-        <v>523039.0788376092</v>
+        <v>639972.8236860915</v>
       </c>
       <c r="AE17" t="n">
-        <v>715645.1425212345</v>
+        <v>875639.0509756638</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.194780661103893e-06</v>
+        <v>1.756856237344591e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH17" t="n">
-        <v>647344.974533273</v>
+        <v>792069.2889176725</v>
       </c>
     </row>
     <row r="18">
@@ -21000,28 +21000,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>524.3250803558901</v>
+        <v>641.2588252043724</v>
       </c>
       <c r="AB18" t="n">
-        <v>717.4047065329293</v>
+        <v>877.3986149873587</v>
       </c>
       <c r="AC18" t="n">
-        <v>648.9366082252553</v>
+        <v>793.6609226096547</v>
       </c>
       <c r="AD18" t="n">
-        <v>524325.0803558901</v>
+        <v>641258.8252043724</v>
       </c>
       <c r="AE18" t="n">
-        <v>717404.7065329292</v>
+        <v>877398.6149873587</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.193878755881801e-06</v>
+        <v>1.755530037593866e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>26.58854166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>648936.6082252553</v>
+        <v>793660.9226096547</v>
       </c>
     </row>
   </sheetData>
@@ -21297,28 +21297,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1135.1434840827</v>
+        <v>1323.86203781137</v>
       </c>
       <c r="AB2" t="n">
-        <v>1553.15339391807</v>
+        <v>1811.366444804631</v>
       </c>
       <c r="AC2" t="n">
-        <v>1404.922613867008</v>
+        <v>1638.492173581248</v>
       </c>
       <c r="AD2" t="n">
-        <v>1135143.4840827</v>
+        <v>1323862.03781137</v>
       </c>
       <c r="AE2" t="n">
-        <v>1553153.39391807</v>
+        <v>1811366.444804631</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.161483460392022e-07</v>
+        <v>1.036103737743448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1404922.613867008</v>
+        <v>1638492.173581248</v>
       </c>
     </row>
     <row r="3">
@@ -21403,28 +21403,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>823.2244879173425</v>
+        <v>969.1184064589384</v>
       </c>
       <c r="AB3" t="n">
-        <v>1126.372062469713</v>
+        <v>1325.990558203753</v>
       </c>
       <c r="AC3" t="n">
-        <v>1018.872693700721</v>
+        <v>1199.439880368223</v>
       </c>
       <c r="AD3" t="n">
-        <v>823224.4879173425</v>
+        <v>969118.4064589384</v>
       </c>
       <c r="AE3" t="n">
-        <v>1126372.062469712</v>
+        <v>1325990.558203753</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.127962163393418e-07</v>
+        <v>1.320608469988001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.56770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1018872.693700721</v>
+        <v>1199439.880368223</v>
       </c>
     </row>
     <row r="4">
@@ -21509,28 +21509,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.9793207777778</v>
+        <v>874.2059032564729</v>
       </c>
       <c r="AB4" t="n">
-        <v>1008.36761992112</v>
+        <v>1196.127084078019</v>
       </c>
       <c r="AC4" t="n">
-        <v>912.1304295286909</v>
+        <v>1081.970393948518</v>
       </c>
       <c r="AD4" t="n">
-        <v>736979.3207777778</v>
+        <v>874205.9032564729</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008367.61992112</v>
+        <v>1196127.084078019</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.895448826373863e-07</v>
+        <v>1.431646330311253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.96354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>912130.4295286909</v>
+        <v>1081970.393948518</v>
       </c>
     </row>
     <row r="5">
@@ -21615,28 +21615,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>700.3941918489278</v>
+        <v>837.5354334730513</v>
       </c>
       <c r="AB5" t="n">
-        <v>958.3102324986912</v>
+        <v>1145.952929533393</v>
       </c>
       <c r="AC5" t="n">
-        <v>866.850448905874</v>
+        <v>1036.584790293763</v>
       </c>
       <c r="AD5" t="n">
-        <v>700394.1918489278</v>
+        <v>837535.4334730513</v>
       </c>
       <c r="AE5" t="n">
-        <v>958310.2324986912</v>
+        <v>1145952.929533393</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.029495598570581e-06</v>
+        <v>1.489445927744999e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.75260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>866850.448905874</v>
+        <v>1036584.790293763</v>
       </c>
     </row>
     <row r="6">
@@ -21721,28 +21721,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>673.7555757536136</v>
+        <v>802.4001630239796</v>
       </c>
       <c r="AB6" t="n">
-        <v>921.8621027442827</v>
+        <v>1097.879302446238</v>
       </c>
       <c r="AC6" t="n">
-        <v>833.8808774999549</v>
+        <v>993.0992427040474</v>
       </c>
       <c r="AD6" t="n">
-        <v>673755.5757536136</v>
+        <v>802400.1630239796</v>
       </c>
       <c r="AE6" t="n">
-        <v>921862.1027442827</v>
+        <v>1097879.302446238</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.056294105901504e-06</v>
+        <v>1.528217271371052e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.99739583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>833880.8774999549</v>
+        <v>993099.2427040474</v>
       </c>
     </row>
     <row r="7">
@@ -21827,28 +21827,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>662.286677856178</v>
+        <v>790.9312651265441</v>
       </c>
       <c r="AB7" t="n">
-        <v>906.1698506689456</v>
+        <v>1082.187050370901</v>
       </c>
       <c r="AC7" t="n">
-        <v>819.6862719384741</v>
+        <v>978.9046371425662</v>
       </c>
       <c r="AD7" t="n">
-        <v>662286.677856178</v>
+        <v>790931.2651265441</v>
       </c>
       <c r="AE7" t="n">
-        <v>906169.8506689456</v>
+        <v>1082187.050370901</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.072999057793476e-06</v>
+        <v>1.552385536493525e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.5546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>819686.271938474</v>
+        <v>978904.6371425663</v>
       </c>
     </row>
     <row r="8">
@@ -21933,28 +21933,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>652.4230509774023</v>
+        <v>772.4857325479902</v>
       </c>
       <c r="AB8" t="n">
-        <v>892.6740012208985</v>
+        <v>1056.949058937459</v>
       </c>
       <c r="AC8" t="n">
-        <v>807.4784474202046</v>
+        <v>956.0753241897881</v>
       </c>
       <c r="AD8" t="n">
-        <v>652423.0509774024</v>
+        <v>772485.7325479902</v>
       </c>
       <c r="AE8" t="n">
-        <v>892674.0012208985</v>
+        <v>1056949.058937459</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.087539424369868e-06</v>
+        <v>1.573422139093087e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.1640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>807478.4474202046</v>
+        <v>956075.3241897882</v>
       </c>
     </row>
     <row r="9">
@@ -22039,28 +22039,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>637.5504773983196</v>
+        <v>766.109723814114</v>
       </c>
       <c r="AB9" t="n">
-        <v>872.3246899183586</v>
+        <v>1048.225122498116</v>
       </c>
       <c r="AC9" t="n">
-        <v>789.0712458279414</v>
+        <v>948.1839880000949</v>
       </c>
       <c r="AD9" t="n">
-        <v>637550.4773983195</v>
+        <v>766109.723814114</v>
       </c>
       <c r="AE9" t="n">
-        <v>872324.6899183586</v>
+        <v>1048225.122498116</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095962484619623e-06</v>
+        <v>1.585608391084419e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.95572916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>789071.2458279415</v>
+        <v>948183.9880000949</v>
       </c>
     </row>
     <row r="10">
@@ -22145,28 +22145,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>630.40454510378</v>
+        <v>750.5524780203887</v>
       </c>
       <c r="AB10" t="n">
-        <v>862.5473100966865</v>
+        <v>1026.939012465896</v>
       </c>
       <c r="AC10" t="n">
-        <v>780.2270054138111</v>
+        <v>928.9293944341068</v>
       </c>
       <c r="AD10" t="n">
-        <v>630404.54510378</v>
+        <v>750552.4780203886</v>
       </c>
       <c r="AE10" t="n">
-        <v>862547.3100966865</v>
+        <v>1026939.012465896</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.105609006134705e-06</v>
+        <v>1.599564713197396e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.70833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>780227.0054138111</v>
+        <v>928929.3944341068</v>
       </c>
     </row>
     <row r="11">
@@ -22251,28 +22251,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>625.8076384835695</v>
+        <v>745.9555714001781</v>
       </c>
       <c r="AB11" t="n">
-        <v>856.2576196577074</v>
+        <v>1020.649322026917</v>
       </c>
       <c r="AC11" t="n">
-        <v>774.5375942026922</v>
+        <v>923.2399832229877</v>
       </c>
       <c r="AD11" t="n">
-        <v>625807.6384835695</v>
+        <v>745955.5714001781</v>
       </c>
       <c r="AE11" t="n">
-        <v>856257.6196577074</v>
+        <v>1020649.322026917</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.111326334739985e-06</v>
+        <v>1.607836387035088e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.56510416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>774537.5942026922</v>
+        <v>923239.9832229877</v>
       </c>
     </row>
     <row r="12">
@@ -22357,28 +22357,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>622.5589405413205</v>
+        <v>742.706873457929</v>
       </c>
       <c r="AB12" t="n">
-        <v>851.812607810684</v>
+        <v>1016.204310179894</v>
       </c>
       <c r="AC12" t="n">
-        <v>770.5168080477355</v>
+        <v>919.2191970680312</v>
       </c>
       <c r="AD12" t="n">
-        <v>622558.9405413205</v>
+        <v>742706.873457929</v>
       </c>
       <c r="AE12" t="n">
-        <v>851812.607810684</v>
+        <v>1016204.310179894</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.113490920055565e-06</v>
+        <v>1.610968049558e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.51302083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>770516.8080477355</v>
+        <v>919219.1970680312</v>
       </c>
     </row>
     <row r="13">
@@ -22463,28 +22463,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>617.3155372324629</v>
+        <v>737.2928779484791</v>
       </c>
       <c r="AB13" t="n">
-        <v>844.6383520808772</v>
+        <v>1008.79664267524</v>
       </c>
       <c r="AC13" t="n">
-        <v>764.0272532156501</v>
+        <v>912.5185069532947</v>
       </c>
       <c r="AD13" t="n">
-        <v>617315.5372324629</v>
+        <v>737292.8779484791</v>
       </c>
       <c r="AE13" t="n">
-        <v>844638.3520808772</v>
+        <v>1008796.64267524</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.120549350432454e-06</v>
+        <v>1.621179992567496e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH13" t="n">
-        <v>764027.2532156501</v>
+        <v>912518.5069532947</v>
       </c>
     </row>
     <row r="14">
@@ -22569,28 +22569,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>613.51354979846</v>
+        <v>733.4908905144763</v>
       </c>
       <c r="AB14" t="n">
-        <v>839.4363051418267</v>
+        <v>1003.594595736189</v>
       </c>
       <c r="AC14" t="n">
-        <v>759.3216823353439</v>
+        <v>907.8129360729885</v>
       </c>
       <c r="AD14" t="n">
-        <v>613513.54979846</v>
+        <v>733490.8905144763</v>
       </c>
       <c r="AE14" t="n">
-        <v>839436.3051418266</v>
+        <v>1003594.59573619</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.124313846633462e-06</v>
+        <v>1.62662636217256e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.25260416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>759321.6823353439</v>
+        <v>907812.9360729884</v>
       </c>
     </row>
     <row r="15">
@@ -22675,28 +22675,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>610.3970395242811</v>
+        <v>730.3743802402977</v>
       </c>
       <c r="AB15" t="n">
-        <v>835.1721582939657</v>
+        <v>999.3304488883285</v>
       </c>
       <c r="AC15" t="n">
-        <v>755.4644996778751</v>
+        <v>903.9557534155197</v>
       </c>
       <c r="AD15" t="n">
-        <v>610397.0395242812</v>
+        <v>730374.3802402976</v>
       </c>
       <c r="AE15" t="n">
-        <v>835172.1582939657</v>
+        <v>999330.4488883285</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.126596072455323e-06</v>
+        <v>1.62992822374563e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH15" t="n">
-        <v>755464.4996778751</v>
+        <v>903955.7534155197</v>
       </c>
     </row>
     <row r="16">
@@ -22781,28 +22781,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>606.4876714726263</v>
+        <v>726.4650121886426</v>
       </c>
       <c r="AB16" t="n">
-        <v>829.8231884565454</v>
+        <v>993.9814790509079</v>
       </c>
       <c r="AC16" t="n">
-        <v>750.6260280144116</v>
+        <v>899.1172817520563</v>
       </c>
       <c r="AD16" t="n">
-        <v>606487.6714726263</v>
+        <v>726465.0121886426</v>
       </c>
       <c r="AE16" t="n">
-        <v>829823.1884565454</v>
+        <v>993981.4790509079</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.129748838023667e-06</v>
+        <v>1.634489558289872e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.12239583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>750626.0280144117</v>
+        <v>899117.2817520563</v>
       </c>
     </row>
     <row r="17">
@@ -22887,28 +22887,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>602.7467252063691</v>
+        <v>714.3127524231996</v>
       </c>
       <c r="AB17" t="n">
-        <v>824.7046607361508</v>
+        <v>977.3542211199654</v>
       </c>
       <c r="AC17" t="n">
-        <v>745.9960053957528</v>
+        <v>884.0769059815398</v>
       </c>
       <c r="AD17" t="n">
-        <v>602746.7252063691</v>
+        <v>714312.7524231996</v>
       </c>
       <c r="AE17" t="n">
-        <v>824704.6607361508</v>
+        <v>977354.2211199653</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.132831019288242e-06</v>
+        <v>1.638948773404019e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>28</v>
+        <v>27.04427083333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>745996.0053957528</v>
+        <v>884076.9059815397</v>
       </c>
     </row>
     <row r="18">
@@ -22993,28 +22993,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>599.951152273418</v>
+        <v>711.5171794902483</v>
       </c>
       <c r="AB18" t="n">
-        <v>820.8796345173134</v>
+        <v>973.5291949011281</v>
       </c>
       <c r="AC18" t="n">
-        <v>742.5360343107834</v>
+        <v>880.6169348965701</v>
       </c>
       <c r="AD18" t="n">
-        <v>599951.1522734179</v>
+        <v>711517.1794902483</v>
       </c>
       <c r="AE18" t="n">
-        <v>820879.6345173134</v>
+        <v>973529.1949011281</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.133513334224675e-06</v>
+        <v>1.639935927894936e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH18" t="n">
-        <v>742536.0343107834</v>
+        <v>880616.9348965702</v>
       </c>
     </row>
     <row r="19">
@@ -23099,28 +23099,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>589.2379237216571</v>
+        <v>709.3005157836941</v>
       </c>
       <c r="AB19" t="n">
-        <v>806.2213225785077</v>
+        <v>970.4962578255197</v>
       </c>
       <c r="AC19" t="n">
-        <v>729.2766910903472</v>
+        <v>877.8734570787042</v>
       </c>
       <c r="AD19" t="n">
-        <v>589237.9237216571</v>
+        <v>709300.5157836941</v>
       </c>
       <c r="AE19" t="n">
-        <v>806221.3225785077</v>
+        <v>970496.2578255197</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.136219065869149e-06</v>
+        <v>1.643850506048576e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26.96614583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>729276.6910903471</v>
+        <v>877873.4570787041</v>
       </c>
     </row>
     <row r="20">
@@ -23205,28 +23205,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>585.3485607758943</v>
+        <v>705.4111528379311</v>
       </c>
       <c r="AB20" t="n">
-        <v>800.8997246095315</v>
+        <v>965.1746598565435</v>
       </c>
       <c r="AC20" t="n">
-        <v>724.4629789626205</v>
+        <v>873.0597449509773</v>
       </c>
       <c r="AD20" t="n">
-        <v>585348.5607758943</v>
+        <v>705411.1528379312</v>
       </c>
       <c r="AE20" t="n">
-        <v>800899.7246095315</v>
+        <v>965174.6598565435</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.136077897261611e-06</v>
+        <v>1.643646267188386e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>26.96614583333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>724462.9789626205</v>
+        <v>873059.7449509774</v>
       </c>
     </row>
     <row r="21">
@@ -23311,28 +23311,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>583.5180141210423</v>
+        <v>703.5806061830792</v>
       </c>
       <c r="AB21" t="n">
-        <v>798.3950899183442</v>
+        <v>962.6700251653563</v>
       </c>
       <c r="AC21" t="n">
-        <v>722.1973830910831</v>
+        <v>870.79414907944</v>
       </c>
       <c r="AD21" t="n">
-        <v>583518.0141210422</v>
+        <v>703580.6061830792</v>
       </c>
       <c r="AE21" t="n">
-        <v>798395.0899183442</v>
+        <v>962670.0251653562</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.138971853716136e-06</v>
+        <v>1.64783316382228e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>26.90104166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>722197.3830910831</v>
+        <v>870794.14907944</v>
       </c>
     </row>
     <row r="22">
@@ -23417,28 +23417,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>581.1562273820579</v>
+        <v>701.2188194440948</v>
       </c>
       <c r="AB22" t="n">
-        <v>795.1635891073885</v>
+        <v>959.4385243544004</v>
       </c>
       <c r="AC22" t="n">
-        <v>719.2742921820853</v>
+        <v>867.8710581704422</v>
       </c>
       <c r="AD22" t="n">
-        <v>581156.2273820578</v>
+        <v>701218.8194440948</v>
       </c>
       <c r="AE22" t="n">
-        <v>795163.5891073885</v>
+        <v>959438.5243544005</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.138618932197291e-06</v>
+        <v>1.647322566671805e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>26.90104166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>719274.2921820853</v>
+        <v>867871.0581704422</v>
       </c>
     </row>
     <row r="23">
@@ -23523,28 +23523,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>577.990213607092</v>
+        <v>698.0528056691289</v>
       </c>
       <c r="AB23" t="n">
-        <v>790.8317093858102</v>
+        <v>955.1066446328222</v>
       </c>
       <c r="AC23" t="n">
-        <v>715.355840981303</v>
+        <v>863.9526069696598</v>
       </c>
       <c r="AD23" t="n">
-        <v>577990.2136070919</v>
+        <v>698052.8056691289</v>
       </c>
       <c r="AE23" t="n">
-        <v>790831.7093858102</v>
+        <v>955106.6446328221</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.142148147385736e-06</v>
+        <v>1.652428538176553e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>715355.840981303</v>
+        <v>863952.6069696598</v>
       </c>
     </row>
     <row r="24">
@@ -23629,28 +23629,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>575.1737671842067</v>
+        <v>695.2363592462436</v>
       </c>
       <c r="AB24" t="n">
-        <v>786.9781231371717</v>
+        <v>951.2530583841838</v>
       </c>
       <c r="AC24" t="n">
-        <v>711.8700355956922</v>
+        <v>860.4668015840491</v>
       </c>
       <c r="AD24" t="n">
-        <v>575173.7671842066</v>
+        <v>695236.3592462436</v>
       </c>
       <c r="AE24" t="n">
-        <v>786978.1231371717</v>
+        <v>951253.0583841838</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.142571653208349e-06</v>
+        <v>1.653041254757123e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>26.80989583333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>711870.0355956922</v>
+        <v>860466.8015840491</v>
       </c>
     </row>
     <row r="25">
@@ -23735,28 +23735,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>572.7047658891964</v>
+        <v>692.7673579512334</v>
       </c>
       <c r="AB25" t="n">
-        <v>783.5999266406891</v>
+        <v>947.8748618877011</v>
       </c>
       <c r="AC25" t="n">
-        <v>708.8142494315053</v>
+        <v>857.4110154198623</v>
       </c>
       <c r="AD25" t="n">
-        <v>572704.7658891964</v>
+        <v>692767.3579512334</v>
       </c>
       <c r="AE25" t="n">
-        <v>783599.9266406891</v>
+        <v>947874.8618877011</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.142242259790761e-06</v>
+        <v>1.652564697416679e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>708814.2494315053</v>
+        <v>857411.0154198623</v>
       </c>
     </row>
     <row r="26">
@@ -23841,28 +23841,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>573.2056918012058</v>
+        <v>693.2682838632428</v>
       </c>
       <c r="AB26" t="n">
-        <v>784.285315572792</v>
+        <v>948.5602508198041</v>
       </c>
       <c r="AC26" t="n">
-        <v>709.4342258058779</v>
+        <v>858.0309917942348</v>
       </c>
       <c r="AD26" t="n">
-        <v>573205.6918012059</v>
+        <v>693268.2838632428</v>
       </c>
       <c r="AE26" t="n">
-        <v>784285.315572792</v>
+        <v>948560.250819804</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.141889338271917e-06</v>
+        <v>1.652054100266205e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>709434.2258058778</v>
+        <v>858030.9917942347</v>
       </c>
     </row>
   </sheetData>
@@ -24138,28 +24138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>721.1769482709902</v>
+        <v>866.8161736139996</v>
       </c>
       <c r="AB2" t="n">
-        <v>986.7461167058611</v>
+        <v>1186.016129969324</v>
       </c>
       <c r="AC2" t="n">
-        <v>892.572452234326</v>
+        <v>1072.824415109144</v>
       </c>
       <c r="AD2" t="n">
-        <v>721176.9482709903</v>
+        <v>866816.1736139996</v>
       </c>
       <c r="AE2" t="n">
-        <v>986746.1167058612</v>
+        <v>1186016.129969324</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.606521124002217e-07</v>
+        <v>1.442596496631454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.50520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>892572.4522343259</v>
+        <v>1072824.415109144</v>
       </c>
     </row>
     <row r="3">
@@ -24244,28 +24244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.3934319528257</v>
+        <v>715.7556979748655</v>
       </c>
       <c r="AB3" t="n">
-        <v>802.3293634502722</v>
+        <v>979.3285228820197</v>
       </c>
       <c r="AC3" t="n">
-        <v>725.7561750789115</v>
+        <v>885.8627831543735</v>
       </c>
       <c r="AD3" t="n">
-        <v>586393.4319528257</v>
+        <v>715755.6979748654</v>
       </c>
       <c r="AE3" t="n">
-        <v>802329.3634502722</v>
+        <v>979328.5228820196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.114367650059132e-06</v>
+        <v>1.673428754471928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>725756.1750789115</v>
+        <v>885862.7831543734</v>
       </c>
     </row>
     <row r="4">
@@ -24350,28 +24350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>549.5426012972256</v>
+        <v>662.79867921599</v>
       </c>
       <c r="AB4" t="n">
-        <v>751.9084312033709</v>
+        <v>906.8703935173463</v>
       </c>
       <c r="AC4" t="n">
-        <v>680.1473458394316</v>
+        <v>820.3199559606414</v>
       </c>
       <c r="AD4" t="n">
-        <v>549542.6012972256</v>
+        <v>662798.67921599</v>
       </c>
       <c r="AE4" t="n">
-        <v>751908.4312033709</v>
+        <v>906870.3935173464</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.170595108692769e-06</v>
+        <v>1.75786466398834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.30729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>680147.3458394316</v>
+        <v>820319.9559606414</v>
       </c>
     </row>
     <row r="5">
@@ -24456,28 +24456,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>525.6961433555875</v>
+        <v>639.0374726203727</v>
       </c>
       <c r="AB5" t="n">
-        <v>719.2806554161459</v>
+        <v>874.3592623827709</v>
       </c>
       <c r="AC5" t="n">
-        <v>650.6335191799686</v>
+        <v>790.9116415518906</v>
       </c>
       <c r="AD5" t="n">
-        <v>525696.1433555875</v>
+        <v>639037.4726203727</v>
       </c>
       <c r="AE5" t="n">
-        <v>719280.6554161459</v>
+        <v>874359.2623827709</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.200426969950634e-06</v>
+        <v>1.802662711047296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.60416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>650633.5191799686</v>
+        <v>790911.6415518906</v>
       </c>
     </row>
     <row r="6">
@@ -24562,28 +24562,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>515.4102016443993</v>
+        <v>628.5809387085922</v>
       </c>
       <c r="AB6" t="n">
-        <v>705.2069761831764</v>
+        <v>860.0521713749542</v>
       </c>
       <c r="AC6" t="n">
-        <v>637.9030121404606</v>
+        <v>777.9699992297317</v>
       </c>
       <c r="AD6" t="n">
-        <v>515410.2016443993</v>
+        <v>628580.9387085922</v>
       </c>
       <c r="AE6" t="n">
-        <v>705206.9761831764</v>
+        <v>860052.1713749543</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.217557381748025e-06</v>
+        <v>1.828387186875519e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.2265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>637903.0121404607</v>
+        <v>777969.9992297317</v>
       </c>
     </row>
     <row r="7">
@@ -24668,28 +24668,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>498.8688792086767</v>
+        <v>612.1248676188902</v>
       </c>
       <c r="AB7" t="n">
-        <v>682.5744090749782</v>
+        <v>837.5362489194054</v>
       </c>
       <c r="AC7" t="n">
-        <v>617.4304654720614</v>
+        <v>757.6029648120448</v>
       </c>
       <c r="AD7" t="n">
-        <v>498868.8792086767</v>
+        <v>612124.8676188902</v>
       </c>
       <c r="AE7" t="n">
-        <v>682574.4090749782</v>
+        <v>837536.2489194054</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.230182469788896e-06</v>
+        <v>1.84734608733733e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.94010416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>617430.4654720614</v>
+        <v>757602.9648120448</v>
       </c>
     </row>
     <row r="8">
@@ -24774,28 +24774,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>491.8025722258957</v>
+        <v>605.0585606361092</v>
       </c>
       <c r="AB8" t="n">
-        <v>672.905976117675</v>
+        <v>827.8678159621021</v>
       </c>
       <c r="AC8" t="n">
-        <v>608.6847741864724</v>
+        <v>748.8572735264555</v>
       </c>
       <c r="AD8" t="n">
-        <v>491802.5722258957</v>
+        <v>605058.5606361092</v>
       </c>
       <c r="AE8" t="n">
-        <v>672905.976117675</v>
+        <v>827867.8159621021</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239473109173811e-06</v>
+        <v>1.861297697556203e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>608684.7741864724</v>
+        <v>748857.2735264555</v>
       </c>
     </row>
     <row r="9">
@@ -24880,28 +24880,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>486.2309480889105</v>
+        <v>599.486936499124</v>
       </c>
       <c r="AB9" t="n">
-        <v>665.2826341707427</v>
+        <v>820.2444740151699</v>
       </c>
       <c r="AC9" t="n">
-        <v>601.7889932955277</v>
+        <v>741.9614926355108</v>
       </c>
       <c r="AD9" t="n">
-        <v>486230.9480889104</v>
+        <v>599486.936499124</v>
       </c>
       <c r="AE9" t="n">
-        <v>665282.6341707427</v>
+        <v>820244.4740151699</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.242756650216699e-06</v>
+        <v>1.866228540619859e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>601788.9932955276</v>
+        <v>741961.4926355109</v>
       </c>
     </row>
     <row r="10">
@@ -24986,28 +24986,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>479.7109873488789</v>
+        <v>592.9669757590924</v>
       </c>
       <c r="AB10" t="n">
-        <v>656.3617362458642</v>
+        <v>811.3235760902913</v>
       </c>
       <c r="AC10" t="n">
-        <v>593.7194933480407</v>
+        <v>733.8919926880239</v>
       </c>
       <c r="AD10" t="n">
-        <v>479710.9873488789</v>
+        <v>592966.9757590924</v>
       </c>
       <c r="AE10" t="n">
-        <v>656361.7362458642</v>
+        <v>811323.5760902914</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.249272824689407e-06</v>
+        <v>1.876013779567891e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.53645833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>593719.4933480407</v>
+        <v>733891.992688024</v>
       </c>
     </row>
     <row r="11">
@@ -25092,28 +25092,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>473.9755009605801</v>
+        <v>587.0608971702014</v>
       </c>
       <c r="AB11" t="n">
-        <v>648.5141907375923</v>
+        <v>803.2426188071727</v>
       </c>
       <c r="AC11" t="n">
-        <v>586.6209065689791</v>
+        <v>726.5822706263114</v>
       </c>
       <c r="AD11" t="n">
-        <v>473975.5009605801</v>
+        <v>587060.8971702014</v>
       </c>
       <c r="AE11" t="n">
-        <v>648514.1907375923</v>
+        <v>803242.6188071726</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.254338132189675e-06</v>
+        <v>1.883620273906399e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.41927083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>586620.906568979</v>
+        <v>726582.2706263113</v>
       </c>
     </row>
     <row r="12">
@@ -25198,28 +25198,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>474.9428577657736</v>
+        <v>588.0282539753949</v>
       </c>
       <c r="AB12" t="n">
-        <v>649.8377709952285</v>
+        <v>804.5661990648086</v>
       </c>
       <c r="AC12" t="n">
-        <v>587.8181661844829</v>
+        <v>727.7795302418151</v>
       </c>
       <c r="AD12" t="n">
-        <v>474942.8577657735</v>
+        <v>588028.2539753949</v>
       </c>
       <c r="AE12" t="n">
-        <v>649837.7709952286</v>
+        <v>804566.1990648087</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.253829056058995e-06</v>
+        <v>1.882855802113584e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.43229166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>587818.166184483</v>
+        <v>727779.5302418151</v>
       </c>
     </row>
   </sheetData>
@@ -25495,28 +25495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>586.2681594029551</v>
+        <v>719.6867415591793</v>
       </c>
       <c r="AB2" t="n">
-        <v>802.1579600209044</v>
+        <v>984.7071501394811</v>
       </c>
       <c r="AC2" t="n">
-        <v>725.6011301522764</v>
+        <v>890.7280817753335</v>
       </c>
       <c r="AD2" t="n">
-        <v>586268.1594029551</v>
+        <v>719686.7415591793</v>
       </c>
       <c r="AE2" t="n">
-        <v>802157.9600209044</v>
+        <v>984707.1501394811</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083300017267459e-06</v>
+        <v>1.661507879547483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>725601.1301522764</v>
+        <v>890728.0817753335</v>
       </c>
     </row>
     <row r="3">
@@ -25601,28 +25601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.1880665342292</v>
+        <v>619.8050133602719</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.1158676060091</v>
+        <v>848.0445631468809</v>
       </c>
       <c r="AC3" t="n">
-        <v>621.5384935748679</v>
+        <v>767.1083802781617</v>
       </c>
       <c r="AD3" t="n">
-        <v>502188.0665342291</v>
+        <v>619805.0133602719</v>
       </c>
       <c r="AE3" t="n">
-        <v>687115.8676060091</v>
+        <v>848044.5631468809</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.213591920364903e-06</v>
+        <v>1.861342662328801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.45052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>621538.4935748678</v>
+        <v>767108.3802781617</v>
       </c>
     </row>
     <row r="4">
@@ -25707,28 +25707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.6056240079114</v>
+        <v>583.4497196964454</v>
       </c>
       <c r="AB4" t="n">
-        <v>648.0081087731317</v>
+        <v>798.3016464736733</v>
       </c>
       <c r="AC4" t="n">
-        <v>586.1631243569159</v>
+        <v>722.1128577576228</v>
       </c>
       <c r="AD4" t="n">
-        <v>473605.6240079114</v>
+        <v>583449.7196964454</v>
       </c>
       <c r="AE4" t="n">
-        <v>648008.1087731316</v>
+        <v>798301.6464736733</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258666449315993e-06</v>
+        <v>1.930475574564911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>586163.1243569159</v>
+        <v>722112.8577576228</v>
       </c>
     </row>
     <row r="5">
@@ -25813,28 +25813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>452.7932494957207</v>
+        <v>562.7225965302753</v>
       </c>
       <c r="AB5" t="n">
-        <v>619.5316997883906</v>
+        <v>769.9418821415815</v>
       </c>
       <c r="AC5" t="n">
-        <v>560.4044638787876</v>
+        <v>696.4597095302069</v>
       </c>
       <c r="AD5" t="n">
-        <v>452793.2494957207</v>
+        <v>562722.5965302753</v>
       </c>
       <c r="AE5" t="n">
-        <v>619531.6997883905</v>
+        <v>769941.8821415815</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.28372258452704e-06</v>
+        <v>1.968905340484395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.88802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>560404.4638787876</v>
+        <v>696459.7095302069</v>
       </c>
     </row>
     <row r="6">
@@ -25919,28 +25919,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>442.7181669064125</v>
+        <v>552.647513940967</v>
       </c>
       <c r="AB6" t="n">
-        <v>605.746527308425</v>
+        <v>756.156709661616</v>
       </c>
       <c r="AC6" t="n">
-        <v>547.9349289126989</v>
+        <v>683.9901745641181</v>
       </c>
       <c r="AD6" t="n">
-        <v>442718.1669064125</v>
+        <v>552647.5139409669</v>
       </c>
       <c r="AE6" t="n">
-        <v>605746.5273084251</v>
+        <v>756156.709661616</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.298013861647415e-06</v>
+        <v>1.990824540305138e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.6015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>547934.9289126989</v>
+        <v>683990.1745641181</v>
       </c>
     </row>
     <row r="7">
@@ -26025,28 +26025,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>434.6849651896088</v>
+        <v>544.443720023571</v>
       </c>
       <c r="AB7" t="n">
-        <v>594.7551463196469</v>
+        <v>744.9319168979907</v>
       </c>
       <c r="AC7" t="n">
-        <v>537.9925498989895</v>
+        <v>673.8366602677577</v>
       </c>
       <c r="AD7" t="n">
-        <v>434684.9651896087</v>
+        <v>544443.720023571</v>
       </c>
       <c r="AE7" t="n">
-        <v>594755.1463196469</v>
+        <v>744931.9168979907</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307320426154375e-06</v>
+        <v>2.005098453360946e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH7" t="n">
-        <v>537992.5498989895</v>
+        <v>673836.6602677577</v>
       </c>
     </row>
     <row r="8">
@@ -26131,28 +26131,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>433.9495914618074</v>
+        <v>536.0208360128324</v>
       </c>
       <c r="AB8" t="n">
-        <v>593.7489755428699</v>
+        <v>733.4073554030814</v>
       </c>
       <c r="AC8" t="n">
-        <v>537.0824066489786</v>
+        <v>663.4119867470988</v>
       </c>
       <c r="AD8" t="n">
-        <v>433949.5914618074</v>
+        <v>536020.8360128325</v>
       </c>
       <c r="AE8" t="n">
-        <v>593748.9755428699</v>
+        <v>733407.3554030814</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.308487061021344e-06</v>
+        <v>2.006887775795293e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>537082.4066489786</v>
+        <v>663411.9867470989</v>
       </c>
     </row>
   </sheetData>
@@ -49217,28 +49217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>506.259615497959</v>
+        <v>621.1982655033095</v>
       </c>
       <c r="AB2" t="n">
-        <v>692.6867405222473</v>
+        <v>849.9508721949315</v>
       </c>
       <c r="AC2" t="n">
-        <v>626.5776901987496</v>
+        <v>768.8327538661878</v>
       </c>
       <c r="AD2" t="n">
-        <v>506259.615497959</v>
+        <v>621198.2655033094</v>
       </c>
       <c r="AE2" t="n">
-        <v>692686.7405222473</v>
+        <v>849950.8721949315</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.180224939756748e-06</v>
+        <v>1.844078188001551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>626577.6901987495</v>
+        <v>768832.7538661878</v>
       </c>
     </row>
     <row r="3">
@@ -49323,28 +49323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.5359330812001</v>
+        <v>545.8915743424798</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.024210481635</v>
+        <v>746.9129350519464</v>
       </c>
       <c r="AC3" t="n">
-        <v>542.7587419725356</v>
+        <v>675.6286128294761</v>
       </c>
       <c r="AD3" t="n">
-        <v>438535.9330812001</v>
+        <v>545891.5743424798</v>
       </c>
       <c r="AE3" t="n">
-        <v>600024.2104816351</v>
+        <v>746912.9350519464</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295010934943409e-06</v>
+        <v>2.023429041284992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>542758.7419725356</v>
+        <v>675628.6128294761</v>
       </c>
     </row>
     <row r="4">
@@ -49429,28 +49429,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.8275072772798</v>
+        <v>521.097807683988</v>
       </c>
       <c r="AB4" t="n">
-        <v>566.2170522378973</v>
+        <v>712.9890096860109</v>
       </c>
       <c r="AC4" t="n">
-        <v>512.1780914629356</v>
+        <v>644.9423392879373</v>
       </c>
       <c r="AD4" t="n">
-        <v>413827.5072772799</v>
+        <v>521097.807683988</v>
       </c>
       <c r="AE4" t="n">
-        <v>566217.0522378973</v>
+        <v>712989.0096860109</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.331764395767811e-06</v>
+        <v>2.080855598847672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>512178.0914629357</v>
+        <v>644942.3392879374</v>
       </c>
     </row>
     <row r="5">
@@ -49535,28 +49535,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>402.4509671128437</v>
+        <v>509.5506753189596</v>
       </c>
       <c r="AB5" t="n">
-        <v>550.6511680873858</v>
+        <v>697.1897137606525</v>
       </c>
       <c r="AC5" t="n">
-        <v>498.0977934488934</v>
+        <v>630.6509059912439</v>
       </c>
       <c r="AD5" t="n">
-        <v>402450.9671128436</v>
+        <v>509550.6753189596</v>
       </c>
       <c r="AE5" t="n">
-        <v>550651.1680873858</v>
+        <v>697189.7137606525</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.349784562754104e-06</v>
+        <v>2.109011754309373e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.45833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>498097.7934488934</v>
+        <v>630650.9059912439</v>
       </c>
     </row>
     <row r="6">
@@ -49641,28 +49641,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>402.4011705383517</v>
+        <v>509.5008787444675</v>
       </c>
       <c r="AB6" t="n">
-        <v>550.5830342172959</v>
+        <v>697.1215798905627</v>
       </c>
       <c r="AC6" t="n">
-        <v>498.0361621797384</v>
+        <v>630.589274722089</v>
       </c>
       <c r="AD6" t="n">
-        <v>402401.1705383516</v>
+        <v>509500.8787444675</v>
       </c>
       <c r="AE6" t="n">
-        <v>550583.0342172959</v>
+        <v>697121.5798905627</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.351430240104451e-06</v>
+        <v>2.111583092707702e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.43229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>498036.1621797384</v>
+        <v>630589.2747220891</v>
       </c>
     </row>
   </sheetData>
@@ -49938,28 +49938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.9657246603064</v>
+        <v>460.0503108886122</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.7844968134373</v>
+        <v>629.4611313450976</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.0401518544207</v>
+        <v>569.3862444237672</v>
       </c>
       <c r="AD2" t="n">
-        <v>357965.7246603064</v>
+        <v>460050.3108886122</v>
       </c>
       <c r="AE2" t="n">
-        <v>489784.4968134373</v>
+        <v>629461.1313450976</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.385496555387342e-06</v>
+        <v>2.257910668800952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.66927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>443040.1518544207</v>
+        <v>569386.2444237672</v>
       </c>
     </row>
     <row r="3">
@@ -50044,28 +50044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.4095260719728</v>
+        <v>441.408771445707</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.3950872631743</v>
+        <v>603.954954672637</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.0738719173748</v>
+        <v>546.3143414547825</v>
       </c>
       <c r="AD3" t="n">
-        <v>339409.5260719728</v>
+        <v>441408.771445707</v>
       </c>
       <c r="AE3" t="n">
-        <v>464395.0872631744</v>
+        <v>603954.9546726369</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.424384897850088e-06</v>
+        <v>2.321286072368138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.9140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>420073.8719173748</v>
+        <v>546314.3414547825</v>
       </c>
     </row>
   </sheetData>
@@ -50341,28 +50341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>864.2899378639137</v>
+        <v>1021.766062808524</v>
       </c>
       <c r="AB2" t="n">
-        <v>1182.559622766401</v>
+        <v>1398.02540427193</v>
       </c>
       <c r="AC2" t="n">
-        <v>1069.69779210243</v>
+        <v>1264.599821829194</v>
       </c>
       <c r="AD2" t="n">
-        <v>864289.9378639137</v>
+        <v>1021766.062808524</v>
       </c>
       <c r="AE2" t="n">
-        <v>1182559.622766401</v>
+        <v>1398025.40427193</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.581007374801945e-07</v>
+        <v>1.267741558110931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.35677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1069697.79210243</v>
+        <v>1264599.821829194</v>
       </c>
     </row>
     <row r="3">
@@ -50447,28 +50447,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>676.7301860636005</v>
+        <v>809.3147240905474</v>
       </c>
       <c r="AB3" t="n">
-        <v>925.9320958009517</v>
+        <v>1107.340109946421</v>
       </c>
       <c r="AC3" t="n">
-        <v>837.5624361315665</v>
+        <v>1001.657124014739</v>
       </c>
       <c r="AD3" t="n">
-        <v>676730.1860636005</v>
+        <v>809314.7240905474</v>
       </c>
       <c r="AE3" t="n">
-        <v>925932.0958009517</v>
+        <v>1107340.109946421</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.031468845164473e-06</v>
+        <v>1.523872272562721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.08072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>837562.4361315665</v>
+        <v>1001657.124014739</v>
       </c>
     </row>
     <row r="4">
@@ -50553,28 +50553,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>621.1574440641311</v>
+        <v>745.4447864518569</v>
       </c>
       <c r="AB4" t="n">
-        <v>849.8950185009329</v>
+        <v>1019.950443526382</v>
       </c>
       <c r="AC4" t="n">
-        <v>768.7822307703532</v>
+        <v>922.6078047056619</v>
       </c>
       <c r="AD4" t="n">
-        <v>621157.4440641311</v>
+        <v>745444.7864518568</v>
       </c>
       <c r="AE4" t="n">
-        <v>849895.018500933</v>
+        <v>1019950.443526382</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.09700504264467e-06</v>
+        <v>1.620694192737482e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>768782.2307703532</v>
+        <v>922607.804705662</v>
       </c>
     </row>
     <row r="5">
@@ -50659,28 +50659,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>593.4234362315373</v>
+        <v>709.4989238346134</v>
       </c>
       <c r="AB5" t="n">
-        <v>811.9481254463054</v>
+        <v>970.7677284739329</v>
       </c>
       <c r="AC5" t="n">
-        <v>734.4569359300607</v>
+        <v>878.1190189494441</v>
       </c>
       <c r="AD5" t="n">
-        <v>593423.4362315373</v>
+        <v>709498.9238346134</v>
       </c>
       <c r="AE5" t="n">
-        <v>811948.1254463054</v>
+        <v>970767.7284739329</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.130881003475907e-06</v>
+        <v>1.670741887012641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.34635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>734456.9359300607</v>
+        <v>878119.0189494442</v>
       </c>
     </row>
     <row r="6">
@@ -50765,28 +50765,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>572.9786942304995</v>
+        <v>697.2659471096744</v>
       </c>
       <c r="AB6" t="n">
-        <v>783.9747274821257</v>
+        <v>954.0300300380269</v>
       </c>
       <c r="AC6" t="n">
-        <v>709.1532798066715</v>
+        <v>862.9787429607536</v>
       </c>
       <c r="AD6" t="n">
-        <v>572978.6942304996</v>
+        <v>697265.9471096743</v>
       </c>
       <c r="AE6" t="n">
-        <v>783974.7274821256</v>
+        <v>954030.0300380269</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.151241046795262e-06</v>
+        <v>1.700821424196911e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.83854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>709153.2798066715</v>
+        <v>862978.7429607536</v>
       </c>
     </row>
     <row r="7">
@@ -50871,28 +50871,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>564.1958277838833</v>
+        <v>680.3565667329801</v>
       </c>
       <c r="AB7" t="n">
-        <v>771.957622137144</v>
+        <v>930.8938698174208</v>
       </c>
       <c r="AC7" t="n">
-        <v>698.2830701297015</v>
+        <v>842.0506653997975</v>
       </c>
       <c r="AD7" t="n">
-        <v>564195.8277838833</v>
+        <v>680356.5667329801</v>
       </c>
       <c r="AE7" t="n">
-        <v>771957.622137144</v>
+        <v>930893.8698174207</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.165347824089083e-06</v>
+        <v>1.721662506187947e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.51302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>698283.0701297015</v>
+        <v>842050.6653997975</v>
       </c>
     </row>
     <row r="8">
@@ -50977,28 +50977,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>556.8863099779654</v>
+        <v>672.8764567264699</v>
       </c>
       <c r="AB8" t="n">
-        <v>761.9564174019206</v>
+        <v>920.6592533073504</v>
       </c>
       <c r="AC8" t="n">
-        <v>689.236366337629</v>
+        <v>832.7928263250736</v>
       </c>
       <c r="AD8" t="n">
-        <v>556886.3099779654</v>
+        <v>672876.4567264699</v>
       </c>
       <c r="AE8" t="n">
-        <v>761956.4174019205</v>
+        <v>920659.2533073503</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.175269344594162e-06</v>
+        <v>1.736320370136267e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.27864583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>689236.3663376289</v>
+        <v>832792.8263250736</v>
       </c>
     </row>
     <row r="9">
@@ -51083,28 +51083,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>550.9211769456592</v>
+        <v>666.9113236941637</v>
       </c>
       <c r="AB9" t="n">
-        <v>753.7946592240229</v>
+        <v>912.4974951294527</v>
       </c>
       <c r="AC9" t="n">
-        <v>681.8535549051303</v>
+        <v>825.410014892575</v>
       </c>
       <c r="AD9" t="n">
-        <v>550921.1769456592</v>
+        <v>666911.3236941637</v>
       </c>
       <c r="AE9" t="n">
-        <v>753794.6592240229</v>
+        <v>912497.4951294527</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.18194113629857e-06</v>
+        <v>1.746177147133773e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.12239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>681853.5549051303</v>
+        <v>825410.014892575</v>
       </c>
     </row>
     <row r="10">
@@ -51189,28 +51189,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>536.151855316437</v>
+        <v>652.2272534109621</v>
       </c>
       <c r="AB10" t="n">
-        <v>733.5866217944368</v>
+        <v>892.4061023525159</v>
       </c>
       <c r="AC10" t="n">
-        <v>663.5741442056652</v>
+        <v>807.2361164438222</v>
       </c>
       <c r="AD10" t="n">
-        <v>536151.8553164371</v>
+        <v>652227.2534109622</v>
       </c>
       <c r="AE10" t="n">
-        <v>733586.6217944368</v>
+        <v>892406.1023525159</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.190410126506379e-06</v>
+        <v>1.758689070702563e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.92708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>663574.1442056652</v>
+        <v>807236.1164438222</v>
       </c>
     </row>
     <row r="11">
@@ -51295,28 +51295,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>531.9612061004658</v>
+        <v>648.0366041949909</v>
       </c>
       <c r="AB11" t="n">
-        <v>727.8527906587497</v>
+        <v>886.6722712168288</v>
       </c>
       <c r="AC11" t="n">
-        <v>658.3875418660855</v>
+        <v>802.0495141042426</v>
       </c>
       <c r="AD11" t="n">
-        <v>531961.2061004658</v>
+        <v>648036.6041949909</v>
       </c>
       <c r="AE11" t="n">
-        <v>727852.7906587496</v>
+        <v>886672.2712168288</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.193265948785756e-06</v>
+        <v>1.762908207719945e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.86197916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>658387.5418660855</v>
+        <v>802049.5141042426</v>
       </c>
     </row>
     <row r="12">
@@ -51401,28 +51401,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>526.8875727995396</v>
+        <v>642.9629708940647</v>
       </c>
       <c r="AB12" t="n">
-        <v>720.9108217435185</v>
+        <v>879.7303023015976</v>
       </c>
       <c r="AC12" t="n">
-        <v>652.1081047210095</v>
+        <v>795.7700769591664</v>
       </c>
       <c r="AD12" t="n">
-        <v>526887.5727995397</v>
+        <v>642962.9708940648</v>
       </c>
       <c r="AE12" t="n">
-        <v>720910.8217435185</v>
+        <v>879730.3023015975</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.198903735871769e-06</v>
+        <v>1.771237366142192e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.73177083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>652108.1047210095</v>
+        <v>795770.0769591664</v>
       </c>
     </row>
     <row r="13">
@@ -51507,28 +51507,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>522.1492824845051</v>
+        <v>638.2246805790302</v>
       </c>
       <c r="AB13" t="n">
-        <v>714.4276838958726</v>
+        <v>873.2471644539519</v>
       </c>
       <c r="AC13" t="n">
-        <v>646.2437084504019</v>
+        <v>789.9056806885588</v>
       </c>
       <c r="AD13" t="n">
-        <v>522149.282484505</v>
+        <v>638224.6805790302</v>
       </c>
       <c r="AE13" t="n">
-        <v>714427.6838958727</v>
+        <v>873247.1644539519</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.201611843205661e-06</v>
+        <v>1.775238271934537e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.6796875</v>
       </c>
       <c r="AH13" t="n">
-        <v>646243.7084504019</v>
+        <v>789905.6806885588</v>
       </c>
     </row>
     <row r="14">
@@ -51613,28 +51613,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>517.7743167422046</v>
+        <v>633.8497148367297</v>
       </c>
       <c r="AB14" t="n">
-        <v>708.4416627573908</v>
+        <v>867.2611433154699</v>
       </c>
       <c r="AC14" t="n">
-        <v>640.8289847679432</v>
+        <v>784.4909570061002</v>
       </c>
       <c r="AD14" t="n">
-        <v>517774.3167422047</v>
+        <v>633849.7148367297</v>
       </c>
       <c r="AE14" t="n">
-        <v>708441.6627573908</v>
+        <v>867261.1433154698</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.204886191163913e-06</v>
+        <v>1.780075730756191e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.6015625</v>
       </c>
       <c r="AH14" t="n">
-        <v>640828.9847679432</v>
+        <v>784490.9570061002</v>
       </c>
     </row>
     <row r="15">
@@ -51719,28 +51719,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>513.0566739063277</v>
+        <v>629.1320720008528</v>
       </c>
       <c r="AB15" t="n">
-        <v>701.9867757016309</v>
+        <v>860.80625625971</v>
       </c>
       <c r="AC15" t="n">
-        <v>634.9901430732941</v>
+        <v>778.6521153114512</v>
       </c>
       <c r="AD15" t="n">
-        <v>513056.6739063277</v>
+        <v>629132.0720008528</v>
       </c>
       <c r="AE15" t="n">
-        <v>701986.7757016309</v>
+        <v>860806.2562597101</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.207692775128129e-06</v>
+        <v>1.784222124031895e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26.54947916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>634990.1430732941</v>
+        <v>778652.1153114513</v>
       </c>
     </row>
     <row r="16">
@@ -51825,28 +51825,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>512.6782740114051</v>
+        <v>628.75367210593</v>
       </c>
       <c r="AB16" t="n">
-        <v>701.4690322715725</v>
+        <v>860.2885128296516</v>
       </c>
       <c r="AC16" t="n">
-        <v>634.521812349543</v>
+        <v>778.1837845877001</v>
       </c>
       <c r="AD16" t="n">
-        <v>512678.274011405</v>
+        <v>628753.67210593</v>
       </c>
       <c r="AE16" t="n">
-        <v>701469.0322715725</v>
+        <v>860288.5128296516</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.207028057873446e-06</v>
+        <v>1.783240083519228e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH16" t="n">
-        <v>634521.812349543</v>
+        <v>778183.7845877</v>
       </c>
     </row>
     <row r="17">
@@ -51931,28 +51931,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>513.9325395699966</v>
+        <v>630.0079376645217</v>
       </c>
       <c r="AB17" t="n">
-        <v>703.1851737431288</v>
+        <v>862.0046543012079</v>
       </c>
       <c r="AC17" t="n">
-        <v>636.0741676876736</v>
+        <v>779.7361399258307</v>
       </c>
       <c r="AD17" t="n">
-        <v>513932.5395699966</v>
+        <v>630007.9376645217</v>
       </c>
       <c r="AE17" t="n">
-        <v>703185.1737431288</v>
+        <v>862004.6543012079</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.207028057873446e-06</v>
+        <v>1.783240083519228e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH17" t="n">
-        <v>636074.1676876736</v>
+        <v>779736.1399258306</v>
       </c>
     </row>
   </sheetData>
@@ -52228,28 +52228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1078.836471521448</v>
+        <v>1266.303412307851</v>
       </c>
       <c r="AB2" t="n">
-        <v>1476.11165524169</v>
+        <v>1732.612194083374</v>
       </c>
       <c r="AC2" t="n">
-        <v>1335.233630601142</v>
+        <v>1567.254118016543</v>
       </c>
       <c r="AD2" t="n">
-        <v>1078836.471521448</v>
+        <v>1266303.412307851</v>
       </c>
       <c r="AE2" t="n">
-        <v>1476111.65524169</v>
+        <v>1732612.194083374</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.41202797995181e-07</v>
+        <v>1.076351737545985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.67968749999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>1335233.630601142</v>
+        <v>1567254.118016543</v>
       </c>
     </row>
     <row r="3">
@@ -52334,28 +52334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>797.7742194286354</v>
+        <v>942.5963355200563</v>
       </c>
       <c r="AB3" t="n">
-        <v>1091.54988233686</v>
+        <v>1289.701890673984</v>
       </c>
       <c r="AC3" t="n">
-        <v>987.3738935665112</v>
+        <v>1166.61455233603</v>
       </c>
       <c r="AD3" t="n">
-        <v>797774.2194286354</v>
+        <v>942596.3355200563</v>
       </c>
       <c r="AE3" t="n">
-        <v>1091549.88233686</v>
+        <v>1289701.890673984</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.335553981342498e-07</v>
+        <v>1.35568022354358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>987373.8935665112</v>
+        <v>1166614.55233603</v>
       </c>
     </row>
     <row r="4">
@@ -52440,28 +52440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>714.7547027258254</v>
+        <v>851.13308732256</v>
       </c>
       <c r="AB4" t="n">
-        <v>977.9589170214892</v>
+        <v>1164.55783941644</v>
       </c>
       <c r="AC4" t="n">
-        <v>884.6238905549183</v>
+        <v>1053.414073689728</v>
       </c>
       <c r="AD4" t="n">
-        <v>714754.7027258254</v>
+        <v>851133.0873225599</v>
       </c>
       <c r="AE4" t="n">
-        <v>977958.9170214892</v>
+        <v>1164557.83941644</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.009898598337447e-06</v>
+        <v>1.46654345343261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.5859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>884623.8905549182</v>
+        <v>1053414.073689728</v>
       </c>
     </row>
     <row r="5">
@@ -52546,28 +52546,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>679.7864068373909</v>
+        <v>807.5505572473984</v>
       </c>
       <c r="AB5" t="n">
-        <v>930.1137518945966</v>
+        <v>1104.926299042077</v>
       </c>
       <c r="AC5" t="n">
-        <v>841.3450008366252</v>
+        <v>999.4736838353006</v>
       </c>
       <c r="AD5" t="n">
-        <v>679786.406837391</v>
+        <v>807550.5572473984</v>
       </c>
       <c r="AE5" t="n">
-        <v>930113.7518945966</v>
+        <v>1104926.299042077</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.049564798070121e-06</v>
+        <v>1.524145479652144e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>841345.0008366252</v>
+        <v>999473.6838353006</v>
       </c>
     </row>
     <row r="6">
@@ -52652,28 +52652,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>655.4989131628088</v>
+        <v>783.3483149188368</v>
       </c>
       <c r="AB6" t="n">
-        <v>896.8825315604342</v>
+        <v>1071.811723360563</v>
       </c>
       <c r="AC6" t="n">
-        <v>811.2853215308445</v>
+        <v>969.5195167802322</v>
       </c>
       <c r="AD6" t="n">
-        <v>655498.9131628087</v>
+        <v>783348.3149188368</v>
       </c>
       <c r="AE6" t="n">
-        <v>896882.5315604343</v>
+        <v>1071811.723360563</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073597011185671e-06</v>
+        <v>1.559044314915533e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.77604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>811285.3215308446</v>
+        <v>969519.5167802322</v>
       </c>
     </row>
     <row r="7">
@@ -52758,28 +52758,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>644.2595493183796</v>
+        <v>763.5800577422521</v>
       </c>
       <c r="AB7" t="n">
-        <v>881.5043381027484</v>
+        <v>1044.763921777604</v>
       </c>
       <c r="AC7" t="n">
-        <v>797.3748012733301</v>
+        <v>945.0531194185228</v>
       </c>
       <c r="AD7" t="n">
-        <v>644259.5493183796</v>
+        <v>763580.057742252</v>
       </c>
       <c r="AE7" t="n">
-        <v>881504.3381027484</v>
+        <v>1044763.921777604</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.090227397556846e-06</v>
+        <v>1.58319444672169e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>797374.8012733301</v>
+        <v>945053.1194185228</v>
       </c>
     </row>
     <row r="8">
@@ -52864,28 +52864,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>626.6259921504951</v>
+        <v>754.3900530519514</v>
       </c>
       <c r="AB8" t="n">
-        <v>857.3773272480105</v>
+        <v>1032.189751925942</v>
       </c>
       <c r="AC8" t="n">
-        <v>775.5504384720962</v>
+        <v>933.6790106895451</v>
       </c>
       <c r="AD8" t="n">
-        <v>626625.9921504951</v>
+        <v>754390.0530519515</v>
       </c>
       <c r="AE8" t="n">
-        <v>857377.3272480104</v>
+        <v>1032189.751925942</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.104224441720888e-06</v>
+        <v>1.603520520567099e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.96875</v>
       </c>
       <c r="AH8" t="n">
-        <v>775550.4384720962</v>
+        <v>933679.0106895451</v>
       </c>
     </row>
     <row r="9">
@@ -52970,28 +52970,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>619.723985889296</v>
+        <v>747.4880467907525</v>
       </c>
       <c r="AB9" t="n">
-        <v>847.933697786412</v>
+        <v>1022.746122464344</v>
       </c>
       <c r="AC9" t="n">
-        <v>767.0080957520953</v>
+        <v>925.1366679695443</v>
       </c>
       <c r="AD9" t="n">
-        <v>619723.985889296</v>
+        <v>747488.0467907524</v>
       </c>
       <c r="AE9" t="n">
-        <v>847933.6977864121</v>
+        <v>1022746.122464344</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.113476725151356e-06</v>
+        <v>1.616956399888641e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.74739583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>767008.0957520953</v>
+        <v>925136.6679695443</v>
       </c>
     </row>
     <row r="10">
@@ -53076,28 +53076,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>614.9824776892852</v>
+        <v>734.3882374591783</v>
       </c>
       <c r="AB10" t="n">
-        <v>841.4461570865786</v>
+        <v>1004.822385414084</v>
       </c>
       <c r="AC10" t="n">
-        <v>761.1397168313335</v>
+        <v>908.9235472272383</v>
       </c>
       <c r="AD10" t="n">
-        <v>614982.4776892853</v>
+        <v>734388.2374591783</v>
       </c>
       <c r="AE10" t="n">
-        <v>841446.1570865787</v>
+        <v>1004822.385414084</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.11855361913628e-06</v>
+        <v>1.62432890802918e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.6171875</v>
       </c>
       <c r="AH10" t="n">
-        <v>761139.7168313336</v>
+        <v>908923.5472272383</v>
       </c>
     </row>
     <row r="11">
@@ -53182,28 +53182,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>609.7118078691992</v>
+        <v>728.9469754385001</v>
       </c>
       <c r="AB11" t="n">
-        <v>834.2345941131953</v>
+        <v>997.3774106658535</v>
       </c>
       <c r="AC11" t="n">
-        <v>754.6164153066378</v>
+        <v>902.1891104198913</v>
       </c>
       <c r="AD11" t="n">
-        <v>609711.8078691992</v>
+        <v>728946.9754385001</v>
       </c>
       <c r="AE11" t="n">
-        <v>834234.5941131953</v>
+        <v>997377.4106658535</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.124413398642243e-06</v>
+        <v>1.632838298266156e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.47395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>754616.4153066378</v>
+        <v>902189.1104198913</v>
       </c>
     </row>
     <row r="12">
@@ -53288,28 +53288,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>605.6106321262494</v>
+        <v>724.8457996955501</v>
       </c>
       <c r="AB12" t="n">
-        <v>828.6231845305871</v>
+        <v>991.7660010832452</v>
       </c>
       <c r="AC12" t="n">
-        <v>749.5405507789309</v>
+        <v>897.1132458921845</v>
       </c>
       <c r="AD12" t="n">
-        <v>605610.6321262494</v>
+        <v>724845.7996955501</v>
       </c>
       <c r="AE12" t="n">
-        <v>828623.1845305871</v>
+        <v>991766.0010832453</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.129798702074849e-06</v>
+        <v>1.640658669050746e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH12" t="n">
-        <v>749540.5507789309</v>
+        <v>897113.2458921846</v>
       </c>
     </row>
     <row r="13">
@@ -53394,28 +53394,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>601.2574644110342</v>
+        <v>720.492631980335</v>
       </c>
       <c r="AB13" t="n">
-        <v>822.6669884144242</v>
+        <v>985.8098049670823</v>
       </c>
       <c r="AC13" t="n">
-        <v>744.1528056605207</v>
+        <v>891.7255007737745</v>
       </c>
       <c r="AD13" t="n">
-        <v>601257.4644110342</v>
+        <v>720492.631980335</v>
       </c>
       <c r="AE13" t="n">
-        <v>822666.9884144241</v>
+        <v>985809.8049670823</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.133404720232365e-06</v>
+        <v>1.645895216888885e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.25260416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>744152.8056605207</v>
+        <v>891725.5007737745</v>
       </c>
     </row>
     <row r="14">
@@ -53500,28 +53500,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>595.9091969388619</v>
+        <v>715.1443645081627</v>
       </c>
       <c r="AB14" t="n">
-        <v>815.3492529100895</v>
+        <v>978.4920694627477</v>
       </c>
       <c r="AC14" t="n">
-        <v>737.5334645622136</v>
+        <v>885.1061596754672</v>
       </c>
       <c r="AD14" t="n">
-        <v>595909.1969388619</v>
+        <v>715144.3645081626</v>
       </c>
       <c r="AE14" t="n">
-        <v>815349.2529100894</v>
+        <v>978492.0694627478</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.139881318633693e-06</v>
+        <v>1.655300332413964e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.09635416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>737533.4645622135</v>
+        <v>885106.1596754672</v>
       </c>
     </row>
     <row r="15">
@@ -53606,28 +53606,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>591.740657022868</v>
+        <v>702.6175234606053</v>
       </c>
       <c r="AB15" t="n">
-        <v>809.6456726940248</v>
+        <v>961.3522928962567</v>
       </c>
       <c r="AC15" t="n">
-        <v>732.3742260369449</v>
+        <v>869.6021793286544</v>
       </c>
       <c r="AD15" t="n">
-        <v>591740.6570228681</v>
+        <v>702617.5234606053</v>
       </c>
       <c r="AE15" t="n">
-        <v>809645.6726940249</v>
+        <v>961352.2928962567</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.143155203539858e-06</v>
+        <v>1.660054566635433e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.01822916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>732374.2260369449</v>
+        <v>869602.1793286544</v>
       </c>
     </row>
     <row r="16">
@@ -53712,28 +53712,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>590.4697493483687</v>
+        <v>701.3466157861061</v>
       </c>
       <c r="AB16" t="n">
-        <v>807.9067607452855</v>
+        <v>959.6133809475173</v>
       </c>
       <c r="AC16" t="n">
-        <v>730.801273404015</v>
+        <v>868.0292266957246</v>
       </c>
       <c r="AD16" t="n">
-        <v>590469.7493483687</v>
+        <v>701346.6157861061</v>
       </c>
       <c r="AE16" t="n">
-        <v>807906.7607452855</v>
+        <v>959613.3809475172</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.142182527589476e-06</v>
+        <v>1.65864207675804e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.04427083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>730801.273404015</v>
+        <v>868029.2266957245</v>
       </c>
     </row>
     <row r="17">
@@ -53818,28 +53818,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>578.0750437326583</v>
+        <v>697.3954626479796</v>
       </c>
       <c r="AB17" t="n">
-        <v>790.9477777060511</v>
+        <v>954.2072389113584</v>
       </c>
       <c r="AC17" t="n">
-        <v>715.4608319039628</v>
+        <v>863.1390392679288</v>
       </c>
       <c r="AD17" t="n">
-        <v>578075.0437326583</v>
+        <v>697395.4626479796</v>
       </c>
       <c r="AE17" t="n">
-        <v>790947.777706051</v>
+        <v>954207.2389113584</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.146073231391006e-06</v>
+        <v>1.664292036267612e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>26.953125</v>
       </c>
       <c r="AH17" t="n">
-        <v>715460.8319039628</v>
+        <v>863139.0392679288</v>
       </c>
     </row>
     <row r="18">
@@ -53924,28 +53924,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>574.251501661271</v>
+        <v>693.5719205765924</v>
       </c>
       <c r="AB18" t="n">
-        <v>785.716238761208</v>
+        <v>948.9756999665155</v>
       </c>
       <c r="AC18" t="n">
-        <v>710.7285836935046</v>
+        <v>858.4067910574705</v>
       </c>
       <c r="AD18" t="n">
-        <v>574251.5016612711</v>
+        <v>693571.9205765924</v>
       </c>
       <c r="AE18" t="n">
-        <v>785716.238761208</v>
+        <v>948975.6999665155</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.149181049671497e-06</v>
+        <v>1.668805113680745e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>26.875</v>
       </c>
       <c r="AH18" t="n">
-        <v>710728.5836935046</v>
+        <v>858406.7910574705</v>
       </c>
     </row>
     <row r="19">
@@ -54030,28 +54030,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>571.8709695603696</v>
+        <v>691.1913884756909</v>
       </c>
       <c r="AB19" t="n">
-        <v>782.4590897190903</v>
+        <v>945.7185509243977</v>
       </c>
       <c r="AC19" t="n">
-        <v>707.7822923845292</v>
+        <v>855.4604997484952</v>
       </c>
       <c r="AD19" t="n">
-        <v>571870.9695603696</v>
+        <v>691191.388475691</v>
       </c>
       <c r="AE19" t="n">
-        <v>782459.0897190904</v>
+        <v>945718.5509243978</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.149062430653157e-06</v>
+        <v>1.668632858817648e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26.88802083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>707782.2923845293</v>
+        <v>855460.4997484952</v>
       </c>
     </row>
     <row r="20">
@@ -54136,28 +54136,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>568.5644449545533</v>
+        <v>687.8848638698746</v>
       </c>
       <c r="AB20" t="n">
-        <v>777.934956879842</v>
+        <v>941.1944180851494</v>
       </c>
       <c r="AC20" t="n">
-        <v>703.6899364337985</v>
+        <v>851.3681437977646</v>
       </c>
       <c r="AD20" t="n">
-        <v>568564.4449545533</v>
+        <v>687884.8638698746</v>
       </c>
       <c r="AE20" t="n">
-        <v>777934.9568798421</v>
+        <v>941194.4180851495</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.151909287093301e-06</v>
+        <v>1.672766975531969e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>703689.9364337985</v>
+        <v>851368.1437977646</v>
       </c>
     </row>
     <row r="21">
@@ -54242,28 +54242,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>566.1295997160738</v>
+        <v>685.4500186313952</v>
       </c>
       <c r="AB21" t="n">
-        <v>774.6034942067638</v>
+        <v>937.8629554120712</v>
       </c>
       <c r="AC21" t="n">
-        <v>700.6764238825016</v>
+        <v>848.3546312464674</v>
       </c>
       <c r="AD21" t="n">
-        <v>566129.5997160738</v>
+        <v>685450.0186313952</v>
       </c>
       <c r="AE21" t="n">
-        <v>774603.4942067638</v>
+        <v>937862.9554120712</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.151695772860291e-06</v>
+        <v>1.672456916778395e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>700676.4238825015</v>
+        <v>848354.6312464675</v>
       </c>
     </row>
     <row r="22">
@@ -54348,28 +54348,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>562.78455387717</v>
+        <v>682.1049727924915</v>
       </c>
       <c r="AB22" t="n">
-        <v>770.0266549169681</v>
+        <v>933.2861161222756</v>
       </c>
       <c r="AC22" t="n">
-        <v>696.5363917108899</v>
+        <v>844.2145990748558</v>
       </c>
       <c r="AD22" t="n">
-        <v>562784.55387717</v>
+        <v>682104.9727924914</v>
       </c>
       <c r="AE22" t="n">
-        <v>770026.6549169682</v>
+        <v>933286.1161222756</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.155254343410471e-06</v>
+        <v>1.677624562671296e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>696536.3917108899</v>
+        <v>844214.5990748558</v>
       </c>
     </row>
     <row r="23">
@@ -54454,28 +54454,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>561.0464870938519</v>
+        <v>680.3669060091732</v>
       </c>
       <c r="AB23" t="n">
-        <v>767.6485552659377</v>
+        <v>930.9080164712451</v>
       </c>
       <c r="AC23" t="n">
-        <v>694.3852545528697</v>
+        <v>842.0634619168358</v>
       </c>
       <c r="AD23" t="n">
-        <v>561046.4870938519</v>
+        <v>680366.9060091733</v>
       </c>
       <c r="AE23" t="n">
-        <v>767648.5552659377</v>
+        <v>930908.0164712451</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.154969657766456e-06</v>
+        <v>1.677211150999864e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>694385.2545528697</v>
+        <v>842063.4619168357</v>
       </c>
     </row>
     <row r="24">
@@ -54560,28 +54560,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>562.2931931462052</v>
+        <v>681.6136120615266</v>
       </c>
       <c r="AB24" t="n">
-        <v>769.3543534875568</v>
+        <v>932.6138146928641</v>
       </c>
       <c r="AC24" t="n">
-        <v>695.9282537863204</v>
+        <v>843.6064611502863</v>
       </c>
       <c r="AD24" t="n">
-        <v>562293.1931462053</v>
+        <v>681613.6120615266</v>
       </c>
       <c r="AE24" t="n">
-        <v>769354.3534875568</v>
+        <v>932613.8146928642</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.155017105373792e-06</v>
+        <v>1.677280052945102e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>695928.2537863204</v>
+        <v>843606.4611502864</v>
       </c>
     </row>
   </sheetData>
@@ -54857,28 +54857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.4568286342075</v>
+        <v>414.076124217863</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.2537057935059</v>
+        <v>566.5572209042085</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.1908959774417</v>
+        <v>512.4857949091637</v>
       </c>
       <c r="AD2" t="n">
-        <v>314456.8286342074</v>
+        <v>414076.124217863</v>
       </c>
       <c r="AE2" t="n">
-        <v>430253.7057935059</v>
+        <v>566557.2209042085</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435507819325736e-06</v>
+        <v>2.392906008635631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>389190.8959774417</v>
+        <v>512485.7949091637</v>
       </c>
     </row>
   </sheetData>
@@ -55154,28 +55154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>631.5662829574281</v>
+        <v>766.5041386917263</v>
       </c>
       <c r="AB2" t="n">
-        <v>864.1368510803046</v>
+        <v>1048.764778334022</v>
       </c>
       <c r="AC2" t="n">
-        <v>781.6648428368874</v>
+        <v>948.6721398404334</v>
       </c>
       <c r="AD2" t="n">
-        <v>631566.2829574281</v>
+        <v>766504.1386917264</v>
       </c>
       <c r="AE2" t="n">
-        <v>864136.8510803046</v>
+        <v>1048764.778334022</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.03829896849179e-06</v>
+        <v>1.580194075474613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>781664.8428368873</v>
+        <v>948672.1398404334</v>
       </c>
     </row>
     <row r="3">
@@ -55260,28 +55260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.3172614390478</v>
+        <v>647.3700352217143</v>
       </c>
       <c r="AB3" t="n">
-        <v>722.8669848135048</v>
+        <v>885.7602421406441</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.8775743330884</v>
+        <v>801.224527803048</v>
       </c>
       <c r="AD3" t="n">
-        <v>528317.2614390478</v>
+        <v>647370.0352217143</v>
       </c>
       <c r="AE3" t="n">
-        <v>722866.9848135049</v>
+        <v>885760.2421406441</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.177456478901897e-06</v>
+        <v>1.791978812030082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.89322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>653877.5743330885</v>
+        <v>801224.527803048</v>
       </c>
     </row>
     <row r="4">
@@ -55366,28 +55366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>497.0835232567292</v>
+        <v>616.050956184824</v>
       </c>
       <c r="AB4" t="n">
-        <v>680.1316062971778</v>
+        <v>842.9080965021192</v>
       </c>
       <c r="AC4" t="n">
-        <v>615.2208003628792</v>
+        <v>762.4621308008998</v>
       </c>
       <c r="AD4" t="n">
-        <v>497083.5232567292</v>
+        <v>616050.956184824</v>
       </c>
       <c r="AE4" t="n">
-        <v>680131.6062971777</v>
+        <v>842908.0965021192</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.226995089442184e-06</v>
+        <v>1.867371951442243e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.72135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>615220.8003628792</v>
+        <v>762462.1308008998</v>
       </c>
     </row>
     <row r="5">
@@ -55472,28 +55472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>483.1294252213141</v>
+        <v>594.1544066821441</v>
       </c>
       <c r="AB5" t="n">
-        <v>661.0389937537652</v>
+        <v>812.948271464966</v>
       </c>
       <c r="AC5" t="n">
-        <v>597.9503599639601</v>
+        <v>735.3616294164138</v>
       </c>
       <c r="AD5" t="n">
-        <v>483129.4252213141</v>
+        <v>594154.4066821442</v>
       </c>
       <c r="AE5" t="n">
-        <v>661038.9937537652</v>
+        <v>812948.271464966</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.25442944654519e-06</v>
+        <v>1.909124481179991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.12239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>597950.35996396</v>
+        <v>735361.6294164138</v>
       </c>
     </row>
     <row r="6">
@@ -55578,28 +55578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>465.928191078338</v>
+        <v>577.0384238851888</v>
       </c>
       <c r="AB6" t="n">
-        <v>637.503506334453</v>
+        <v>789.529428698303</v>
       </c>
       <c r="AC6" t="n">
-        <v>576.6610664316828</v>
+        <v>714.1778481348491</v>
       </c>
       <c r="AD6" t="n">
-        <v>465928.1910783381</v>
+        <v>577038.4238851888</v>
       </c>
       <c r="AE6" t="n">
-        <v>637503.506334453</v>
+        <v>789529.4286983031</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.268407904688151e-06</v>
+        <v>1.930398389189224e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>576661.0664316828</v>
+        <v>714177.8481348491</v>
       </c>
     </row>
     <row r="7">
@@ -55684,28 +55684,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>457.3230945061505</v>
+        <v>568.4333273130011</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.729633574318</v>
+        <v>777.755555938168</v>
       </c>
       <c r="AC7" t="n">
-        <v>566.0108755630408</v>
+        <v>703.5276572662073</v>
       </c>
       <c r="AD7" t="n">
-        <v>457323.0945061505</v>
+        <v>568433.327313001</v>
       </c>
       <c r="AE7" t="n">
-        <v>625729.633574318</v>
+        <v>777755.555938168</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.278623936714127e-06</v>
+        <v>1.94594623597728e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.6015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>566010.8755630408</v>
+        <v>703527.6572662073</v>
       </c>
     </row>
     <row r="8">
@@ -55790,28 +55790,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>450.0019017705275</v>
+        <v>560.9415423767858</v>
       </c>
       <c r="AB8" t="n">
-        <v>615.7124546852106</v>
+        <v>767.5049652742136</v>
       </c>
       <c r="AC8" t="n">
-        <v>556.949722167911</v>
+        <v>694.2553685884262</v>
       </c>
       <c r="AD8" t="n">
-        <v>450001.9017705275</v>
+        <v>560941.5423767859</v>
       </c>
       <c r="AE8" t="n">
-        <v>615712.4546852106</v>
+        <v>767504.9652742137</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.285338822214578e-06</v>
+        <v>1.95616566468452e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.47135416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>556949.722167911</v>
+        <v>694255.3685884263</v>
       </c>
     </row>
     <row r="9">
@@ -55896,28 +55896,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>446.6217695547446</v>
+        <v>549.7895508943304</v>
       </c>
       <c r="AB9" t="n">
-        <v>611.0876086666677</v>
+        <v>752.2463185367768</v>
       </c>
       <c r="AC9" t="n">
-        <v>552.7662649623657</v>
+        <v>680.4529856799652</v>
       </c>
       <c r="AD9" t="n">
-        <v>446621.7695547446</v>
+        <v>549789.5508943305</v>
       </c>
       <c r="AE9" t="n">
-        <v>611087.6086666677</v>
+        <v>752246.3185367768</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.290982461390053e-06</v>
+        <v>1.964754756516285e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>552766.2649623656</v>
+        <v>680452.9856799652</v>
       </c>
     </row>
     <row r="10">
@@ -56002,28 +56002,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>448.1747267657165</v>
+        <v>551.3425081053023</v>
       </c>
       <c r="AB10" t="n">
-        <v>613.2124332343561</v>
+        <v>754.3711431044654</v>
       </c>
       <c r="AC10" t="n">
-        <v>554.6882992555238</v>
+        <v>682.3750199731236</v>
       </c>
       <c r="AD10" t="n">
-        <v>448174.7267657164</v>
+        <v>551342.5081053022</v>
       </c>
       <c r="AE10" t="n">
-        <v>613212.4332343561</v>
+        <v>754371.1431044654</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.290982461390053e-06</v>
+        <v>1.964754756516285e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>554688.2992555238</v>
+        <v>682375.0199731236</v>
       </c>
     </row>
   </sheetData>
@@ -56299,28 +56299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>767.7839907432998</v>
+        <v>914.605379297269</v>
       </c>
       <c r="AB2" t="n">
-        <v>1050.515928374072</v>
+        <v>1251.403429496131</v>
       </c>
       <c r="AC2" t="n">
-        <v>950.256162578416</v>
+        <v>1131.971242540764</v>
       </c>
       <c r="AD2" t="n">
-        <v>767783.9907432998</v>
+        <v>914605.379297269</v>
       </c>
       <c r="AE2" t="n">
-        <v>1050515.928374073</v>
+        <v>1251403.429496131</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.244440365295895e-07</v>
+        <v>1.38011238815929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.4296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>950256.1625784161</v>
+        <v>1131971.242540764</v>
       </c>
     </row>
     <row r="3">
@@ -56405,28 +56405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>619.0745482558389</v>
+        <v>741.4826142052862</v>
       </c>
       <c r="AB3" t="n">
-        <v>847.0451085651498</v>
+        <v>1014.529224659922</v>
       </c>
       <c r="AC3" t="n">
-        <v>766.2043122389676</v>
+        <v>917.7039793590877</v>
       </c>
       <c r="AD3" t="n">
-        <v>619074.5482558389</v>
+        <v>741482.6142052861</v>
       </c>
       <c r="AE3" t="n">
-        <v>847045.1085651498</v>
+        <v>1014529.224659922</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086068922504789e-06</v>
+        <v>1.621403908851647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>766204.3122389676</v>
+        <v>917703.9793590878</v>
       </c>
     </row>
     <row r="4">
@@ -56511,28 +56511,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.7719316580085</v>
+        <v>692.1799080989047</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.5870934580632</v>
+        <v>947.0710870832866</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.1843954157824</v>
+        <v>856.6839517546759</v>
       </c>
       <c r="AD4" t="n">
-        <v>569771.9316580085</v>
+        <v>692179.9080989046</v>
       </c>
       <c r="AE4" t="n">
-        <v>779587.0934580632</v>
+        <v>947071.0870832866</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.147021000126254e-06</v>
+        <v>1.712399917355551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.5546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>705184.3954157825</v>
+        <v>856683.9517546759</v>
       </c>
     </row>
     <row r="5">
@@ -56617,28 +56617,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>546.2933679494661</v>
+        <v>668.6160035357907</v>
       </c>
       <c r="AB5" t="n">
-        <v>747.4626867909079</v>
+        <v>914.8299132939336</v>
       </c>
       <c r="AC5" t="n">
-        <v>676.1258970340525</v>
+        <v>827.5198303410074</v>
       </c>
       <c r="AD5" t="n">
-        <v>546293.3679494661</v>
+        <v>668616.0035357907</v>
       </c>
       <c r="AE5" t="n">
-        <v>747462.6867909079</v>
+        <v>914829.9132939336</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.175270766188533e-06</v>
+        <v>1.75457429521353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.86458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>676125.8970340525</v>
+        <v>827519.8303410073</v>
       </c>
     </row>
     <row r="6">
@@ -56723,28 +56723,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>535.4639885238106</v>
+        <v>649.620492465655</v>
       </c>
       <c r="AB6" t="n">
-        <v>732.6454521022243</v>
+        <v>888.8394170249703</v>
       </c>
       <c r="AC6" t="n">
-        <v>662.7227984279374</v>
+        <v>804.0098305580632</v>
       </c>
       <c r="AD6" t="n">
-        <v>535463.9885238106</v>
+        <v>649620.4924656551</v>
       </c>
       <c r="AE6" t="n">
-        <v>732645.4521022243</v>
+        <v>888839.4170249703</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.193080948176151e-06</v>
+        <v>1.78116330636531e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.44791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>662722.7984279374</v>
+        <v>804009.8305580632</v>
       </c>
     </row>
     <row r="7">
@@ -56829,28 +56829,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>527.2248864147882</v>
+        <v>641.3813903566327</v>
       </c>
       <c r="AB7" t="n">
-        <v>721.3723491131282</v>
+        <v>877.5663140358743</v>
       </c>
       <c r="AC7" t="n">
-        <v>652.5255845662213</v>
+        <v>793.812616696347</v>
       </c>
       <c r="AD7" t="n">
-        <v>527224.8864147882</v>
+        <v>641381.3903566326</v>
       </c>
       <c r="AE7" t="n">
-        <v>721372.3491131281</v>
+        <v>877566.3140358742</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.206010939054167e-06</v>
+        <v>1.800466628020699e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>652525.5845662212</v>
+        <v>793812.616696347</v>
       </c>
     </row>
     <row r="8">
@@ -56935,28 +56935,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>511.2267242854688</v>
+        <v>625.4684795733339</v>
       </c>
       <c r="AB8" t="n">
-        <v>699.4829578986923</v>
+        <v>855.7935674740877</v>
       </c>
       <c r="AC8" t="n">
-        <v>632.7252861273377</v>
+        <v>774.1178305081758</v>
       </c>
       <c r="AD8" t="n">
-        <v>511226.7242854688</v>
+        <v>625468.4795733339</v>
       </c>
       <c r="AE8" t="n">
-        <v>699482.9578986923</v>
+        <v>855793.5674740877</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.217280658729947e-06</v>
+        <v>1.817291313043295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.9140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>632725.2861273376</v>
+        <v>774117.8305081758</v>
       </c>
     </row>
     <row r="9">
@@ -57041,28 +57041,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>505.7414118442361</v>
+        <v>619.9831671321011</v>
       </c>
       <c r="AB9" t="n">
-        <v>691.977711421692</v>
+        <v>848.2883209970873</v>
       </c>
       <c r="AC9" t="n">
-        <v>625.9363298404226</v>
+        <v>767.3288742212607</v>
       </c>
       <c r="AD9" t="n">
-        <v>505741.4118442361</v>
+        <v>619983.1671321011</v>
       </c>
       <c r="AE9" t="n">
-        <v>691977.711421692</v>
+        <v>848288.3209970873</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.222160849839548e-06</v>
+        <v>1.824577002539686e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>625936.3298404226</v>
+        <v>767328.8742212607</v>
       </c>
     </row>
     <row r="10">
@@ -57147,28 +57147,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>499.9079052254575</v>
+        <v>614.1496605133226</v>
       </c>
       <c r="AB10" t="n">
-        <v>683.9960503097302</v>
+        <v>840.3066598851257</v>
       </c>
       <c r="AC10" t="n">
-        <v>618.7164272626549</v>
+        <v>760.1089716434931</v>
       </c>
       <c r="AD10" t="n">
-        <v>499907.9052254575</v>
+        <v>614149.6605133226</v>
       </c>
       <c r="AE10" t="n">
-        <v>683996.0503097302</v>
+        <v>840306.6598851257</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227745398428886e-06</v>
+        <v>1.83291423484999e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.6796875</v>
       </c>
       <c r="AH10" t="n">
-        <v>618716.4272626549</v>
+        <v>760108.971643493</v>
       </c>
     </row>
     <row r="11">
@@ -57253,28 +57253,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>494.3481191446598</v>
+        <v>608.5898744325249</v>
       </c>
       <c r="AB11" t="n">
-        <v>676.3889057135322</v>
+        <v>832.6995152889275</v>
       </c>
       <c r="AC11" t="n">
-        <v>611.8352978700233</v>
+        <v>753.2278422508615</v>
       </c>
       <c r="AD11" t="n">
-        <v>494348.1191446598</v>
+        <v>608589.8744325249</v>
       </c>
       <c r="AE11" t="n">
-        <v>676388.9057135321</v>
+        <v>832699.5152889275</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.233078390775461e-06</v>
+        <v>1.840875916155326e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH11" t="n">
-        <v>611835.2978700233</v>
+        <v>753227.8422508615</v>
       </c>
     </row>
     <row r="12">
@@ -57359,28 +57359,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>489.048148822272</v>
+        <v>603.1193119095448</v>
       </c>
       <c r="AB12" t="n">
-        <v>669.1372525002523</v>
+        <v>825.2144503008009</v>
       </c>
       <c r="AC12" t="n">
-        <v>605.2757322616598</v>
+        <v>746.4571413598468</v>
       </c>
       <c r="AD12" t="n">
-        <v>489048.148822272</v>
+        <v>603119.3119095447</v>
       </c>
       <c r="AE12" t="n">
-        <v>669137.2525002523</v>
+        <v>825214.4503008008</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.235920976318682e-06</v>
+        <v>1.845119642511472e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.49739583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>605275.7322616598</v>
+        <v>746457.1413598468</v>
       </c>
     </row>
     <row r="13">
@@ -57465,28 +57465,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>486.8052609664364</v>
+        <v>600.8764240537091</v>
       </c>
       <c r="AB13" t="n">
-        <v>666.0684343866694</v>
+        <v>822.145632187218</v>
       </c>
       <c r="AC13" t="n">
-        <v>602.499797841724</v>
+        <v>743.681206939911</v>
       </c>
       <c r="AD13" t="n">
-        <v>486805.2609664364</v>
+        <v>600876.4240537091</v>
       </c>
       <c r="AE13" t="n">
-        <v>666068.4343866694</v>
+        <v>822145.6321872179</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238084360006444e-06</v>
+        <v>1.848349381154202e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.45833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>602499.797841724</v>
+        <v>743681.206939911</v>
       </c>
     </row>
     <row r="14">
@@ -57571,28 +57571,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>488.3304851819095</v>
+        <v>602.4016482691823</v>
       </c>
       <c r="AB14" t="n">
-        <v>668.1553134464233</v>
+        <v>824.2325112469717</v>
       </c>
       <c r="AC14" t="n">
-        <v>604.387508092968</v>
+        <v>745.568917191155</v>
       </c>
       <c r="AD14" t="n">
-        <v>488330.4851819095</v>
+        <v>602401.6482691823</v>
       </c>
       <c r="AE14" t="n">
-        <v>668155.3134464233</v>
+        <v>824232.5112469718</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.237983737509339e-06</v>
+        <v>1.848199160752214e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.45833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>604387.508092968</v>
+        <v>745568.917191155</v>
       </c>
     </row>
   </sheetData>
